--- a/WIP/Deliverables/Report 5/Test Result/WS_System Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverables/Report 5/Test Result/WS_System Test Case_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WingS\201609JS01\WIP\Documents\Report 5\Test Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WingS\201609JS01 (GitHub Desktop)\WIP\Deliverables\Report 5\Test Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="840" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="840" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="814">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -971,12 +971,6 @@
     <t>User search a blank</t>
   </si>
   <si>
-    <t>User search with max length keyword</t>
-  </si>
-  <si>
-    <t>User search with over max length keyword</t>
-  </si>
-  <si>
     <t>Test slider User click Left/Right button</t>
   </si>
   <si>
@@ -996,23 +990,11 @@
 3. Press Enter</t>
   </si>
   <si>
-    <t>1. Input [maxlength] characters into search text box
-2. Click Search or press Enter</t>
-  </si>
-  <si>
     <t>1. Input unusual [!$#$@] characters into search text box
 2. Click Search or press Enter</t>
   </si>
   <si>
-    <t>1. Input [maxlength+1] characters into search text box
-2. Click Search or press Enter</t>
-  </si>
-  <si>
     <t>1. Input data is displayed in search text box
-2. Search Result page is displayed</t>
-  </si>
-  <si>
-    <t>1. First [maxlength] of input data is displayed in search text box
 2. Search Result page is displayed</t>
   </si>
   <si>
@@ -2168,15 +2150,6 @@
     <t>Review content of recent thread edited</t>
   </si>
   <si>
-    <t>Edit Event page successful</t>
-  </si>
-  <si>
-    <t>Review creator of recent event edited</t>
-  </si>
-  <si>
-    <t>Review content of recent event edited</t>
-  </si>
-  <si>
     <t>2. Thread page is displayed 
 3. Created thread page is displayed
 4. Edit thread page is displayed
@@ -2195,13 +2168,6 @@
 4. Edit thread page is displayed
 5. Edit thread page is closed and move to thread detail
 - Display content of thread as edited</t>
-  </si>
-  <si>
-    <t>1. Login wings.com with registered account
-2. Click event tab
-3. Click on a created event
-4. Click on Edit Event
-5. Edit event and click "Save" button</t>
   </si>
   <si>
     <t>User profile</t>
@@ -2845,36 +2811,9 @@
     <t>View chat room in an event</t>
   </si>
   <si>
-    <t>1. Login wings.com with registered account
-2. Click event tab
-3. Click on a created event
-4. Click on Edit event
-5. Edit event and click "Save" button</t>
-  </si>
-  <si>
-    <t>2. Event tab is displayed
-3. Created event page is displayed
-4. Edit event page is displayed
-5. Edit event page is closed and move to event detail
-- Display content of event as edited</t>
-  </si>
-  <si>
-    <t>2. Event tab is displayed
-3. Created event page is displayed
-4. Edit event page is displayed
-5. Edit event page is closed and move to event detail
-- Display name of event's creator as before</t>
-  </si>
-  <si>
     <t>2. Event tab is displayed
 3. Created event page is displayed
 4. Edit event page is displayed</t>
-  </si>
-  <si>
-    <t>2. Event tab is displayed
-3. Created event page is displayed
-4. Edit event page is displayed
-5. Edit event page is closed and move to event detail</t>
   </si>
   <si>
     <t>1. Login wings.com with registered account
@@ -4191,15 +4130,6 @@
   </si>
   <si>
     <t>1. Go to About Us page</t>
-  </si>
-  <si>
-    <t>Check click on 'Liên hệ' on footer</t>
-  </si>
-  <si>
-    <t>Click on 'Liên hệ' on footer</t>
-  </si>
-  <si>
-    <t>1.Go to Contact page</t>
   </si>
   <si>
     <t>Check click on 'Đăng nhập' on footer</t>
@@ -5638,6 +5568,9 @@
     <xf numFmtId="0" fontId="32" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5722,9 +5655,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6205,13 +6135,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -6222,11 +6152,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="173" t="s">
+      <c r="C4" s="174" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -6238,11 +6168,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="174" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -6251,15 +6181,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="175" t="str">
+      <c r="C6" s="176" t="str">
         <f>C5&amp;"_"&amp;"System Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>WS_System Test Case_v1.0</v>
       </c>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -6268,10 +6198,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="174"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -6683,14 +6613,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="196" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
+      <c r="B2" s="197" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -6941,14 +6871,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="196" t="s">
-        <v>535</v>
-      </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="B3" s="197" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -7199,14 +7129,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="187" t="s">
-        <v>785</v>
-      </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
+      <c r="B4" s="188" t="s">
+        <v>772</v>
+      </c>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -7464,11 +7394,11 @@
       <c r="D5" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="198" t="s">
+      <c r="E5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -7732,12 +7662,12 @@
         <f>COUNTIF(F12:G99,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="200">
         <f>COUNTA(A12:A99)*2</f>
         <v>30</v>
       </c>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -8764,10 +8694,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -9020,7 +8950,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -9277,13 +9207,13 @@
         <v>[Donate-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -9304,13 +9234,13 @@
         <v>[Donate-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="106" t="s">
@@ -9331,13 +9261,13 @@
         <v>[Donate-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="E14" s="99"/>
       <c r="F14" s="106" t="s">
@@ -9358,13 +9288,13 @@
         <v>[Donate-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="E15" s="99"/>
       <c r="F15" s="106" t="s">
@@ -9385,13 +9315,13 @@
         <v>[Donate-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="E16" s="99"/>
       <c r="F16" s="106" t="s">
@@ -9412,13 +9342,13 @@
         <v>[Donate-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="E17" s="99"/>
       <c r="F17" s="106" t="s">
@@ -9439,13 +9369,13 @@
         <v>[Donate-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="E18" s="99"/>
       <c r="F18" s="106" t="s">
@@ -9466,13 +9396,13 @@
         <v>[Donate-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="E19" s="99"/>
       <c r="F19" s="106" t="s">
@@ -9493,13 +9423,13 @@
         <v>[Donate-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="E20" s="99"/>
       <c r="F20" s="106" t="s">
@@ -9520,13 +9450,13 @@
         <v>[Donate-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E21" s="99"/>
       <c r="F21" s="106" t="s">
@@ -9547,13 +9477,13 @@
         <v>[Donate-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="106" t="s">
@@ -9574,13 +9504,13 @@
         <v>[Donate-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="106" t="s">
@@ -9601,13 +9531,13 @@
         <v>[Donate-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E24" s="99"/>
       <c r="F24" s="106" t="s">
@@ -9628,13 +9558,13 @@
         <v>[Donate-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E25" s="99"/>
       <c r="F25" s="106" t="s">
@@ -9655,13 +9585,13 @@
         <v>[Donate-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E26" s="99"/>
       <c r="F26" s="106" t="s">
@@ -10017,14 +9947,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="197" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -10275,14 +10205,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="196" t="s">
-        <v>535</v>
-      </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="B3" s="197" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -10533,14 +10463,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -10798,11 +10728,11 @@
       <c r="D5" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="198" t="s">
+      <c r="E5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -11066,12 +10996,12 @@
         <f>COUNTIF(F12:G99,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="200">
         <f>COUNTA(A12:A99)*2</f>
         <v>36</v>
       </c>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -12098,10 +12028,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -12354,7 +12284,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -12611,13 +12541,13 @@
         <v>[Message-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -12638,13 +12568,13 @@
         <v>[Message-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="106" t="s">
@@ -12665,13 +12595,13 @@
         <v>[Message-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E14" s="99"/>
       <c r="F14" s="106" t="s">
@@ -12692,13 +12622,13 @@
         <v>[Message-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="E15" s="99"/>
       <c r="F15" s="106" t="s">
@@ -12719,13 +12649,13 @@
         <v>[Message-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="E16" s="99"/>
       <c r="F16" s="106" t="s">
@@ -12746,13 +12676,13 @@
         <v>[Message-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="E17" s="99"/>
       <c r="F17" s="106" t="s">
@@ -12773,13 +12703,13 @@
         <v>[Message-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E18" s="99"/>
       <c r="F18" s="106" t="s">
@@ -12800,13 +12730,13 @@
         <v>[Message-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="E19" s="99"/>
       <c r="F19" s="106" t="s">
@@ -12827,13 +12757,13 @@
         <v>[Message-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="E20" s="99"/>
       <c r="F20" s="106" t="s">
@@ -12854,13 +12784,13 @@
         <v>[Message-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="E21" s="99"/>
       <c r="F21" s="106" t="s">
@@ -12881,13 +12811,13 @@
         <v>[Message-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="106" t="s">
@@ -12908,13 +12838,13 @@
         <v>[Message-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="106" t="s">
@@ -12935,13 +12865,13 @@
         <v>[Message-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E24" s="99"/>
       <c r="F24" s="106" t="s">
@@ -12962,13 +12892,13 @@
         <v>[Message-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E25" s="99"/>
       <c r="F25" s="106" t="s">
@@ -12989,13 +12919,13 @@
         <v>[Message-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E26" s="99"/>
       <c r="F26" s="106" t="s">
@@ -13016,13 +12946,13 @@
         <v>[Message-17]</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="E27" s="99"/>
       <c r="F27" s="106" t="s">
@@ -13043,13 +12973,13 @@
         <v>[Message-18]</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E28" s="99"/>
       <c r="F28" s="106" t="s">
@@ -13070,13 +13000,13 @@
         <v>[Message-19]</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E29" s="99"/>
       <c r="F29" s="106" t="s">
@@ -13396,14 +13326,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="197" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
       <c r="H2" s="79"/>
       <c r="J2" s="78" t="s">
         <v>24</v>
@@ -13649,14 +13579,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="197" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
       <c r="H3" s="79"/>
       <c r="J3" s="80"/>
       <c r="O3" s="78"/>
@@ -13900,14 +13830,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
       <c r="H4" s="79"/>
       <c r="J4" s="78" t="s">
         <v>29</v>
@@ -14162,11 +14092,11 @@
       <c r="D5" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="198" t="s">
+      <c r="E5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="84"/>
       <c r="J5" s="78" t="s">
         <v>27</v>
@@ -14425,12 +14355,12 @@
         <f>COUNTIF(F11:G55,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="200">
         <f>COUNTA(A11:A83)*2</f>
         <v>134</v>
       </c>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
       <c r="H6" s="84"/>
       <c r="I6" s="126"/>
       <c r="J6" s="90"/>
@@ -15435,10 +15365,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="155" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G10" s="155" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="H10" s="155" t="s">
         <v>35</v>
@@ -15686,16 +15616,16 @@
     </row>
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="145"/>
-      <c r="B11" s="200" t="s">
+      <c r="B11" s="201" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
@@ -15942,13 +15872,13 @@
         <v>[Admin Module-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="E12" s="152"/>
       <c r="F12" s="97" t="s">
@@ -15957,7 +15887,7 @@
       <c r="G12" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="201">
+      <c r="H12" s="172">
         <v>42472</v>
       </c>
       <c r="I12" s="156"/>
@@ -15969,13 +15899,13 @@
         <v>[Admin Module-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E13" s="153"/>
       <c r="F13" s="97" t="s">
@@ -15984,7 +15914,7 @@
       <c r="G13" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="201">
+      <c r="H13" s="172">
         <v>42472</v>
       </c>
       <c r="I13" s="146"/>
@@ -15996,13 +15926,13 @@
         <v>[Admin Module-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E14" s="153"/>
       <c r="F14" s="97" t="s">
@@ -16011,7 +15941,7 @@
       <c r="G14" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="201">
+      <c r="H14" s="172">
         <v>42472</v>
       </c>
       <c r="I14" s="146"/>
@@ -16023,13 +15953,13 @@
         <v>[Admin Module-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E15" s="153"/>
       <c r="F15" s="97" t="s">
@@ -16038,7 +15968,7 @@
       <c r="G15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="201">
+      <c r="H15" s="172">
         <v>42472</v>
       </c>
       <c r="I15" s="146"/>
@@ -16050,13 +15980,13 @@
         <v>[Admin Module-6]</v>
       </c>
       <c r="B16" s="170" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="C16" s="170" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E16" s="153"/>
       <c r="F16" s="97" t="s">
@@ -16065,7 +15995,7 @@
       <c r="G16" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="201">
+      <c r="H16" s="172">
         <v>42472</v>
       </c>
       <c r="I16" s="146"/>
@@ -16077,13 +16007,13 @@
         <v>[Admin Module-7]</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="C17" s="95" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E17" s="153"/>
       <c r="F17" s="97" t="s">
@@ -16092,7 +16022,7 @@
       <c r="G17" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="201">
+      <c r="H17" s="172">
         <v>42472</v>
       </c>
       <c r="I17" s="146"/>
@@ -16104,13 +16034,13 @@
         <v>[Admin Module-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E18" s="153"/>
       <c r="F18" s="97" t="s">
@@ -16119,7 +16049,7 @@
       <c r="G18" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="201">
+      <c r="H18" s="172">
         <v>42472</v>
       </c>
       <c r="I18" s="146"/>
@@ -16131,13 +16061,13 @@
         <v>[Admin Module-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E19" s="153"/>
       <c r="F19" s="97" t="s">
@@ -16146,7 +16076,7 @@
       <c r="G19" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="201">
+      <c r="H19" s="172">
         <v>42472</v>
       </c>
       <c r="I19" s="146"/>
@@ -16158,13 +16088,13 @@
         <v>[Admin Module-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E20" s="153"/>
       <c r="F20" s="97" t="s">
@@ -16173,7 +16103,7 @@
       <c r="G20" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="201">
+      <c r="H20" s="172">
         <v>42472</v>
       </c>
       <c r="I20" s="146"/>
@@ -16182,14 +16112,14 @@
     <row r="21" spans="1:248" ht="14.25" customHeight="1">
       <c r="A21" s="150"/>
       <c r="B21" s="149" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="C21" s="150"/>
       <c r="D21" s="150"/>
       <c r="E21" s="150"/>
       <c r="F21" s="150"/>
       <c r="G21" s="150"/>
-      <c r="H21" s="201">
+      <c r="H21" s="172">
         <v>42472</v>
       </c>
       <c r="I21" s="146"/>
@@ -16201,16 +16131,16 @@
         <v>[Admin Module-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="E22" s="158" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="F22" s="97" t="s">
         <v>22</v>
@@ -16218,7 +16148,7 @@
       <c r="G22" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="201">
+      <c r="H22" s="172">
         <v>42472</v>
       </c>
       <c r="I22" s="151"/>
@@ -16468,16 +16398,16 @@
         <v>[Admin Module-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="D23" s="157" t="s">
         <v>128</v>
       </c>
       <c r="E23" s="158" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="F23" s="97" t="s">
         <v>22</v>
@@ -16485,7 +16415,7 @@
       <c r="G23" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="201">
+      <c r="H23" s="172">
         <v>42472</v>
       </c>
       <c r="I23" s="147"/>
@@ -16735,16 +16665,16 @@
         <v>[Admin Module-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="D24" s="157" t="s">
         <v>129</v>
       </c>
       <c r="E24" s="158" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="F24" s="97" t="s">
         <v>22</v>
@@ -16752,7 +16682,7 @@
       <c r="G24" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="201">
+      <c r="H24" s="172">
         <v>42472</v>
       </c>
       <c r="I24" s="147"/>
@@ -16999,14 +16929,14 @@
     <row r="25" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
       <c r="A25" s="150"/>
       <c r="B25" s="149" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="C25" s="150"/>
       <c r="D25" s="150"/>
       <c r="E25" s="150"/>
       <c r="F25" s="150"/>
       <c r="G25" s="150"/>
-      <c r="H25" s="201">
+      <c r="H25" s="172">
         <v>42472</v>
       </c>
       <c r="I25" s="147"/>
@@ -17256,13 +17186,13 @@
         <v>[Admin Module-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="D26" s="157" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="E26" s="158"/>
       <c r="F26" s="97" t="s">
@@ -17271,7 +17201,7 @@
       <c r="G26" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="201">
+      <c r="H26" s="172">
         <v>42472</v>
       </c>
       <c r="I26" s="147"/>
@@ -17521,13 +17451,13 @@
         <v>[Admin Module-17]</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D27" s="157" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E27" s="158"/>
       <c r="F27" s="97" t="s">
@@ -17536,7 +17466,7 @@
       <c r="G27" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="201">
+      <c r="H27" s="172">
         <v>42472</v>
       </c>
       <c r="I27" s="151"/>
@@ -17786,13 +17716,13 @@
         <v>[Admin Module-18]</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="D28" s="157" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="E28" s="158"/>
       <c r="F28" s="97" t="s">
@@ -17801,7 +17731,7 @@
       <c r="G28" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="201">
+      <c r="H28" s="172">
         <v>42472</v>
       </c>
       <c r="I28" s="147"/>
@@ -18051,13 +17981,13 @@
         <v>[Admin Module-19]</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="D29" s="157" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="E29" s="158"/>
       <c r="F29" s="97" t="s">
@@ -18066,7 +17996,7 @@
       <c r="G29" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="201">
+      <c r="H29" s="172">
         <v>42472</v>
       </c>
       <c r="I29" s="147"/>
@@ -18316,13 +18246,13 @@
         <v>[Admin Module-20]</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="D30" s="157" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="E30" s="158"/>
       <c r="F30" s="97" t="s">
@@ -18331,7 +18261,7 @@
       <c r="G30" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="201">
+      <c r="H30" s="172">
         <v>42472</v>
       </c>
       <c r="I30" s="147"/>
@@ -18578,14 +18508,14 @@
     <row r="31" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
       <c r="A31" s="138"/>
       <c r="B31" s="149" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
       <c r="E31" s="150"/>
       <c r="F31" s="150"/>
       <c r="G31" s="150"/>
-      <c r="H31" s="201">
+      <c r="H31" s="172">
         <v>42472</v>
       </c>
       <c r="I31" s="147"/>
@@ -18835,13 +18765,13 @@
         <v>[Admin Module-22]</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="D32" s="157" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="E32" s="158"/>
       <c r="F32" s="97" t="s">
@@ -18850,7 +18780,7 @@
       <c r="G32" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="201">
+      <c r="H32" s="172">
         <v>42472</v>
       </c>
       <c r="I32" s="147"/>
@@ -19100,13 +19030,13 @@
         <v>[Admin Module-23]</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="D33" s="157" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="E33" s="158"/>
       <c r="F33" s="97" t="s">
@@ -19115,7 +19045,7 @@
       <c r="G33" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="201">
+      <c r="H33" s="172">
         <v>42472</v>
       </c>
       <c r="I33" s="147"/>
@@ -19365,13 +19295,13 @@
         <v>[Admin Module-24]</v>
       </c>
       <c r="B34" s="97" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="D34" s="157" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="E34" s="158"/>
       <c r="F34" s="97" t="s">
@@ -19380,7 +19310,7 @@
       <c r="G34" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="201">
+      <c r="H34" s="172">
         <v>42472</v>
       </c>
       <c r="I34" s="151"/>
@@ -19392,13 +19322,13 @@
         <v>[Admin Module-25]</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="D35" s="157" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="E35" s="158"/>
       <c r="F35" s="97" t="s">
@@ -19407,7 +19337,7 @@
       <c r="G35" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="201">
+      <c r="H35" s="172">
         <v>42472</v>
       </c>
       <c r="I35" s="140"/>
@@ -19419,13 +19349,13 @@
         <v>[Admin Module-26]</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="D36" s="157" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="E36" s="158"/>
       <c r="F36" s="97" t="s">
@@ -19434,7 +19364,7 @@
       <c r="G36" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="201">
+      <c r="H36" s="172">
         <v>42472</v>
       </c>
       <c r="I36" s="140"/>
@@ -19446,13 +19376,13 @@
         <v>[Admin Module-27]</v>
       </c>
       <c r="B37" s="97" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="D37" s="157" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="E37" s="158"/>
       <c r="F37" s="97" t="s">
@@ -19461,7 +19391,7 @@
       <c r="G37" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="201">
+      <c r="H37" s="172">
         <v>42472</v>
       </c>
       <c r="I37" s="97"/>
@@ -19473,13 +19403,13 @@
         <v>[Admin Module-28]</v>
       </c>
       <c r="B38" s="97" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="D38" s="157" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="E38" s="158"/>
       <c r="F38" s="97" t="s">
@@ -19488,7 +19418,7 @@
       <c r="G38" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="201">
+      <c r="H38" s="172">
         <v>42472</v>
       </c>
       <c r="I38" s="97"/>
@@ -19500,13 +19430,13 @@
         <v>[Admin Module-29]</v>
       </c>
       <c r="B39" s="97" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D39" s="157" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="E39" s="158"/>
       <c r="F39" s="97" t="s">
@@ -19515,7 +19445,7 @@
       <c r="G39" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="201">
+      <c r="H39" s="172">
         <v>42472</v>
       </c>
       <c r="I39" s="97"/>
@@ -19527,13 +19457,13 @@
         <v>[Admin Module-30]</v>
       </c>
       <c r="B40" s="97" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D40" s="157" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="E40" s="158"/>
       <c r="F40" s="97" t="s">
@@ -19542,7 +19472,7 @@
       <c r="G40" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="201">
+      <c r="H40" s="172">
         <v>42472</v>
       </c>
       <c r="I40" s="97"/>
@@ -19551,14 +19481,14 @@
     <row r="41" spans="1:248" ht="14.25" customHeight="1">
       <c r="A41" s="138"/>
       <c r="B41" s="149" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
       <c r="G41" s="150"/>
-      <c r="H41" s="201">
+      <c r="H41" s="172">
         <v>42472</v>
       </c>
       <c r="I41" s="97"/>
@@ -19570,13 +19500,13 @@
         <v>[Admin Module-32]</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="D42" s="157" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="E42" s="158"/>
       <c r="F42" s="97" t="s">
@@ -19585,7 +19515,7 @@
       <c r="G42" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="201">
+      <c r="H42" s="172">
         <v>42472</v>
       </c>
       <c r="I42" s="97"/>
@@ -19597,13 +19527,13 @@
         <v>[Admin Module-33]</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="D43" s="157" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="E43" s="158"/>
       <c r="F43" s="97" t="s">
@@ -19612,7 +19542,7 @@
       <c r="G43" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="201">
+      <c r="H43" s="172">
         <v>42472</v>
       </c>
       <c r="I43" s="148"/>
@@ -19624,13 +19554,13 @@
         <v>[Admin Module-34]</v>
       </c>
       <c r="B44" s="97" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="D44" s="157" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="E44" s="158"/>
       <c r="F44" s="97" t="s">
@@ -19639,7 +19569,7 @@
       <c r="G44" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="201">
+      <c r="H44" s="172">
         <v>42472</v>
       </c>
       <c r="I44" s="151"/>
@@ -19651,13 +19581,13 @@
         <v>[Admin Module-35]</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="D45" s="157" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="E45" s="158"/>
       <c r="F45" s="97" t="s">
@@ -19666,7 +19596,7 @@
       <c r="G45" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="201">
+      <c r="H45" s="172">
         <v>42472</v>
       </c>
       <c r="I45" s="140"/>
@@ -19678,13 +19608,13 @@
         <v>[Admin Module-36]</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="D46" s="157" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="E46" s="158"/>
       <c r="F46" s="97" t="s">
@@ -19693,7 +19623,7 @@
       <c r="G46" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="201">
+      <c r="H46" s="172">
         <v>42472</v>
       </c>
       <c r="I46" s="140"/>
@@ -19705,13 +19635,13 @@
         <v>[Admin Module-37]</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="D47" s="157" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="E47" s="158"/>
       <c r="F47" s="97" t="s">
@@ -19720,7 +19650,7 @@
       <c r="G47" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="201">
+      <c r="H47" s="172">
         <v>42472</v>
       </c>
       <c r="I47" s="97"/>
@@ -19732,13 +19662,13 @@
         <v>[Admin Module-38]</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="D48" s="157" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="E48" s="158"/>
       <c r="F48" s="97" t="s">
@@ -19747,7 +19677,7 @@
       <c r="G48" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="201">
+      <c r="H48" s="172">
         <v>42472</v>
       </c>
       <c r="I48" s="97"/>
@@ -19759,13 +19689,13 @@
         <v>[Admin Module-39]</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="D49" s="157" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="E49" s="158"/>
       <c r="F49" s="97" t="s">
@@ -19774,7 +19704,7 @@
       <c r="G49" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="201">
+      <c r="H49" s="172">
         <v>42472</v>
       </c>
       <c r="I49" s="97"/>
@@ -19786,13 +19716,13 @@
         <v>[Admin Module-40]</v>
       </c>
       <c r="B50" s="97" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="D50" s="157" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="E50" s="158"/>
       <c r="F50" s="97" t="s">
@@ -19801,7 +19731,7 @@
       <c r="G50" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="201">
+      <c r="H50" s="172">
         <v>42472</v>
       </c>
       <c r="I50" s="97"/>
@@ -19813,13 +19743,13 @@
         <v>[Admin Module-41]</v>
       </c>
       <c r="B51" s="97" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="D51" s="157" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="E51" s="158"/>
       <c r="F51" s="97" t="s">
@@ -19828,7 +19758,7 @@
       <c r="G51" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="201">
+      <c r="H51" s="172">
         <v>42472</v>
       </c>
       <c r="I51" s="97"/>
@@ -19840,13 +19770,13 @@
         <v>[Admin Module-42]</v>
       </c>
       <c r="B52" s="97" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="D52" s="157" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="E52" s="158"/>
       <c r="F52" s="97" t="s">
@@ -19855,7 +19785,7 @@
       <c r="G52" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="201">
+      <c r="H52" s="172">
         <v>42472</v>
       </c>
       <c r="I52" s="97"/>
@@ -19864,14 +19794,14 @@
     <row r="53" spans="1:10" ht="15" customHeight="1">
       <c r="A53" s="138"/>
       <c r="B53" s="149" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="C53" s="150"/>
       <c r="D53" s="150"/>
       <c r="E53" s="150"/>
       <c r="F53" s="150"/>
       <c r="G53" s="150"/>
-      <c r="H53" s="201">
+      <c r="H53" s="172">
         <v>42472</v>
       </c>
       <c r="I53" s="148"/>
@@ -19883,13 +19813,13 @@
         <v>[Admin Module-44]</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="D54" s="157" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="E54" s="158"/>
       <c r="F54" s="97" t="s">
@@ -19898,7 +19828,7 @@
       <c r="G54" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="201">
+      <c r="H54" s="172">
         <v>42472</v>
       </c>
       <c r="I54" s="171"/>
@@ -19910,13 +19840,13 @@
         <v>[Admin Module-45]</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D55" s="157" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="E55" s="158"/>
       <c r="F55" s="97" t="s">
@@ -19925,7 +19855,7 @@
       <c r="G55" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="201">
+      <c r="H55" s="172">
         <v>42472</v>
       </c>
       <c r="I55" s="171"/>
@@ -19937,13 +19867,13 @@
         <v>[Admin Module-46]</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D56" s="157" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="E56" s="158"/>
       <c r="F56" s="97" t="s">
@@ -19952,7 +19882,7 @@
       <c r="G56" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="201">
+      <c r="H56" s="172">
         <v>42472</v>
       </c>
       <c r="I56" s="151"/>
@@ -19964,13 +19894,13 @@
         <v>[Admin Module-47]</v>
       </c>
       <c r="B57" s="97" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D57" s="157" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E57" s="158"/>
       <c r="F57" s="97" t="s">
@@ -19979,7 +19909,7 @@
       <c r="G57" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="201">
+      <c r="H57" s="172">
         <v>42472</v>
       </c>
       <c r="I57" s="171"/>
@@ -19991,13 +19921,13 @@
         <v>[Admin Module-48]</v>
       </c>
       <c r="B58" s="97" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D58" s="157" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="E58" s="158"/>
       <c r="F58" s="97" t="s">
@@ -20006,7 +19936,7 @@
       <c r="G58" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="201">
+      <c r="H58" s="172">
         <v>42472</v>
       </c>
       <c r="I58" s="171"/>
@@ -20018,13 +19948,13 @@
         <v>[Admin Module-49]</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D59" s="157" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="E59" s="158"/>
       <c r="F59" s="97" t="s">
@@ -20033,7 +19963,7 @@
       <c r="G59" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="201">
+      <c r="H59" s="172">
         <v>42472</v>
       </c>
       <c r="I59" s="171"/>
@@ -20045,13 +19975,13 @@
         <v>[Admin Module-50]</v>
       </c>
       <c r="B60" s="97" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="D60" s="157" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="E60" s="158"/>
       <c r="F60" s="97" t="s">
@@ -20060,7 +19990,7 @@
       <c r="G60" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="201">
+      <c r="H60" s="172">
         <v>42472</v>
       </c>
       <c r="I60" s="171"/>
@@ -20072,13 +20002,13 @@
         <v>[Admin Module-51]</v>
       </c>
       <c r="B61" s="97" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="D61" s="157" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="E61" s="158"/>
       <c r="F61" s="97" t="s">
@@ -20087,7 +20017,7 @@
       <c r="G61" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="201">
+      <c r="H61" s="172">
         <v>42472</v>
       </c>
       <c r="I61" s="171"/>
@@ -20099,13 +20029,13 @@
         <v>[Admin Module-52]</v>
       </c>
       <c r="B62" s="97" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="D62" s="157" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="E62" s="158"/>
       <c r="F62" s="97" t="s">
@@ -20114,7 +20044,7 @@
       <c r="G62" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="201">
+      <c r="H62" s="172">
         <v>42472</v>
       </c>
       <c r="I62" s="171"/>
@@ -20126,13 +20056,13 @@
         <v>[Admin Module-53]</v>
       </c>
       <c r="B63" s="97" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="C63" s="97" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="D63" s="157" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="E63" s="158"/>
       <c r="F63" s="97" t="s">
@@ -20141,7 +20071,7 @@
       <c r="G63" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="201">
+      <c r="H63" s="172">
         <v>42472</v>
       </c>
       <c r="I63" s="171"/>
@@ -20153,13 +20083,13 @@
         <v>[Admin Module-54]</v>
       </c>
       <c r="B64" s="97" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="D64" s="157" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="E64" s="158"/>
       <c r="F64" s="97" t="s">
@@ -20168,7 +20098,7 @@
       <c r="G64" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H64" s="201">
+      <c r="H64" s="172">
         <v>42472</v>
       </c>
       <c r="I64" s="171"/>
@@ -20180,13 +20110,13 @@
         <v>[Admin Module-55]</v>
       </c>
       <c r="B65" s="97" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C65" s="97" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="D65" s="157" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="E65" s="140"/>
       <c r="F65" s="97" t="s">
@@ -20195,7 +20125,7 @@
       <c r="G65" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="201">
+      <c r="H65" s="172">
         <v>42472</v>
       </c>
       <c r="I65" s="171"/>
@@ -20207,13 +20137,13 @@
         <v>[Admin Module-56]</v>
       </c>
       <c r="B66" s="97" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="D66" s="157" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="E66" s="140"/>
       <c r="F66" s="97" t="s">
@@ -20222,7 +20152,7 @@
       <c r="G66" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="201">
+      <c r="H66" s="172">
         <v>42472</v>
       </c>
       <c r="I66" s="171"/>
@@ -20234,13 +20164,13 @@
         <v>[Admin Module-57]</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="C67" s="97" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="D67" s="157" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="E67" s="140"/>
       <c r="F67" s="97" t="s">
@@ -20249,7 +20179,7 @@
       <c r="G67" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H67" s="201">
+      <c r="H67" s="172">
         <v>42472</v>
       </c>
       <c r="I67" s="171"/>
@@ -20261,13 +20191,13 @@
         <v>[Admin Module-58]</v>
       </c>
       <c r="B68" s="97" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="C68" s="97" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D68" s="157" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="E68" s="140"/>
       <c r="F68" s="97" t="s">
@@ -20276,7 +20206,7 @@
       <c r="G68" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="201">
+      <c r="H68" s="172">
         <v>42472</v>
       </c>
       <c r="I68" s="140"/>
@@ -20288,13 +20218,13 @@
         <v>[Admin Module-59]</v>
       </c>
       <c r="B69" s="97" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="D69" s="157" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="E69" s="140"/>
       <c r="F69" s="97" t="s">
@@ -20303,7 +20233,7 @@
       <c r="G69" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H69" s="201">
+      <c r="H69" s="172">
         <v>42472</v>
       </c>
       <c r="I69" s="140"/>
@@ -20315,13 +20245,13 @@
         <v>[Admin Module-60]</v>
       </c>
       <c r="B70" s="97" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="C70" s="97" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="D70" s="157" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="E70" s="140"/>
       <c r="F70" s="97" t="s">
@@ -20330,7 +20260,7 @@
       <c r="G70" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="201">
+      <c r="H70" s="172">
         <v>42472</v>
       </c>
       <c r="I70" s="140"/>
@@ -20342,13 +20272,13 @@
         <v>[Admin Module-61]</v>
       </c>
       <c r="B71" s="97" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="C71" s="97" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="D71" s="157" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="E71" s="140"/>
       <c r="F71" s="97" t="s">
@@ -20357,7 +20287,7 @@
       <c r="G71" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H71" s="201">
+      <c r="H71" s="172">
         <v>42472</v>
       </c>
       <c r="I71" s="140"/>
@@ -20369,13 +20299,13 @@
         <v>[Admin Module-62]</v>
       </c>
       <c r="B72" s="97" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="C72" s="97" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="D72" s="157" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="E72" s="140"/>
       <c r="F72" s="97" t="s">
@@ -20384,7 +20314,7 @@
       <c r="G72" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H72" s="201">
+      <c r="H72" s="172">
         <v>42472</v>
       </c>
       <c r="I72" s="140"/>
@@ -20396,13 +20326,13 @@
         <v>[Admin Module-63]</v>
       </c>
       <c r="B73" s="97" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C73" s="97" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="D73" s="157" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="E73" s="140"/>
       <c r="F73" s="97" t="s">
@@ -20411,7 +20341,7 @@
       <c r="G73" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H73" s="201">
+      <c r="H73" s="172">
         <v>42472</v>
       </c>
       <c r="I73" s="140"/>
@@ -20423,13 +20353,13 @@
         <v>[Admin Module-64]</v>
       </c>
       <c r="B74" s="97" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="C74" s="97" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="D74" s="157" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="E74" s="140"/>
       <c r="F74" s="97" t="s">
@@ -20438,7 +20368,7 @@
       <c r="G74" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="201">
+      <c r="H74" s="172">
         <v>42472</v>
       </c>
       <c r="I74" s="140"/>
@@ -20450,13 +20380,13 @@
         <v>[Admin Module-65]</v>
       </c>
       <c r="B75" s="97" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="D75" s="157" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="E75" s="140"/>
       <c r="F75" s="97" t="s">
@@ -20465,7 +20395,7 @@
       <c r="G75" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="201">
+      <c r="H75" s="172">
         <v>42472</v>
       </c>
       <c r="I75" s="140"/>
@@ -20477,13 +20407,13 @@
         <v>[Admin Module-66]</v>
       </c>
       <c r="B76" s="97" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="C76" s="97" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="D76" s="157" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="E76" s="140"/>
       <c r="F76" s="97" t="s">
@@ -20492,7 +20422,7 @@
       <c r="G76" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="201">
+      <c r="H76" s="172">
         <v>42472</v>
       </c>
       <c r="I76" s="140"/>
@@ -20504,13 +20434,13 @@
         <v>[Admin Module-67]</v>
       </c>
       <c r="B77" s="97" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C77" s="97" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="D77" s="157" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="E77" s="140"/>
       <c r="F77" s="97" t="s">
@@ -20519,7 +20449,7 @@
       <c r="G77" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="201">
+      <c r="H77" s="172">
         <v>42472</v>
       </c>
       <c r="I77" s="140"/>
@@ -20531,13 +20461,13 @@
         <v>[Admin Module-68]</v>
       </c>
       <c r="B78" s="97" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="C78" s="97" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="D78" s="157" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="E78" s="140"/>
       <c r="F78" s="97" t="s">
@@ -20546,7 +20476,7 @@
       <c r="G78" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H78" s="201">
+      <c r="H78" s="172">
         <v>42472</v>
       </c>
       <c r="I78" s="140"/>
@@ -20558,13 +20488,13 @@
         <v>[Admin Module-69]</v>
       </c>
       <c r="B79" s="97" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="C79" s="97" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="D79" s="157" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="E79" s="140"/>
       <c r="F79" s="97" t="s">
@@ -20573,7 +20503,7 @@
       <c r="G79" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="201">
+      <c r="H79" s="172">
         <v>42472</v>
       </c>
       <c r="I79" s="140"/>
@@ -20585,13 +20515,13 @@
         <v>[Admin Module-70]</v>
       </c>
       <c r="B80" s="97" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="C80" s="97" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="D80" s="157" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="E80" s="140"/>
       <c r="F80" s="97" t="s">
@@ -20600,7 +20530,7 @@
       <c r="G80" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="201">
+      <c r="H80" s="172">
         <v>42472</v>
       </c>
       <c r="I80" s="140"/>
@@ -20608,17 +20538,17 @@
     </row>
     <row r="81" spans="1:10" ht="14.25" customHeight="1">
       <c r="A81" s="138" t="str">
-        <f t="shared" ref="A57:A83" si="6">IF(OR(B81&lt;&gt;"",D81&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A81:A83" si="6">IF(OR(B81&lt;&gt;"",D81&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin Module-71]</v>
       </c>
       <c r="B81" s="97" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="C81" s="97" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="D81" s="157" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="E81" s="140"/>
       <c r="F81" s="97" t="s">
@@ -20627,7 +20557,7 @@
       <c r="G81" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="201">
+      <c r="H81" s="172">
         <v>42472</v>
       </c>
       <c r="I81" s="140"/>
@@ -20639,13 +20569,13 @@
         <v>[Admin Module-72]</v>
       </c>
       <c r="B82" s="97" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="C82" s="97" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="D82" s="157" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="E82" s="140"/>
       <c r="F82" s="97" t="s">
@@ -20654,7 +20584,7 @@
       <c r="G82" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H82" s="201">
+      <c r="H82" s="172">
         <v>42472</v>
       </c>
       <c r="I82" s="140"/>
@@ -20666,13 +20596,13 @@
         <v>[Admin Module-73]</v>
       </c>
       <c r="B83" s="97" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="C83" s="97" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="D83" s="157" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="E83" s="140"/>
       <c r="F83" s="97" t="s">
@@ -20681,7 +20611,7 @@
       <c r="G83" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H83" s="201">
+      <c r="H83" s="172">
         <v>42472</v>
       </c>
       <c r="I83" s="140"/>
@@ -20689,12 +20619,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B11:I11"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G12:G20 F32:G40 F13:F20 F26:G30 F22:G24 F42:G52 F54:G83">
@@ -20752,7 +20682,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -20767,15 +20697,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="55"/>
@@ -20791,15 +20721,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="176" t="str">
+      <c r="C3" s="177" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="D3" s="176"/>
-      <c r="E3" s="177" t="s">
+      <c r="D3" s="177"/>
+      <c r="E3" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="177"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="58" t="s">
         <v>141</v>
       </c>
@@ -20809,15 +20739,15 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="176" t="str">
+      <c r="C4" s="177" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177" t="s">
+      <c r="D4" s="177"/>
+      <c r="E4" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="177"/>
+      <c r="F4" s="178"/>
       <c r="G4" s="58" t="s">
         <v>142</v>
       </c>
@@ -20827,15 +20757,15 @@
       <c r="B5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="176" t="str">
+      <c r="C5" s="177" t="str">
         <f>C4&amp;"_"&amp;"System Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>WS_System Test Report_v1.0</v>
       </c>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177" t="s">
+      <c r="D5" s="177"/>
+      <c r="E5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="177"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="94" t="s">
         <v>144</v>
       </c>
@@ -20846,12 +20776,12 @@
       <c r="B6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="55"/>
@@ -20920,7 +20850,7 @@
       </c>
       <c r="E11" s="125">
         <f>Common!B6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="125">
         <f>Common!C6</f>
@@ -20928,11 +20858,11 @@
       </c>
       <c r="G11" s="125">
         <f>Common!D6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="125">
         <f>Common!E6</f>
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1">
@@ -20941,7 +20871,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D12" s="125">
         <f>'Manage Event'!A6</f>
@@ -20949,11 +20879,11 @@
       </c>
       <c r="E12" s="125">
         <f>'Manage Event'!B6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="125">
         <f>'Manage Event'!C6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="125">
         <f>'Manage Event'!D6</f>
@@ -20961,7 +20891,7 @@
       </c>
       <c r="H12" s="125">
         <f>'Manage Event'!E6</f>
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.45" customHeight="1">
@@ -20970,11 +20900,11 @@
         <v>3</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D13" s="125">
         <f>'Manage Thread'!A6</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" s="125">
         <f>'Manage Thread'!B6</f>
@@ -20982,7 +20912,7 @@
       </c>
       <c r="F13" s="125">
         <f>'Manage Thread'!C6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="125">
         <f>'Manage Thread'!D6</f>
@@ -20999,7 +20929,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D14" s="125">
         <f>'Manage Organization'!A6</f>
@@ -21028,7 +20958,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D15" s="125">
         <f>'User Profile'!A6</f>
@@ -21057,7 +20987,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D16" s="125">
         <f>Donate!A6</f>
@@ -21115,7 +21045,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D18" s="116">
         <f>'Admin module'!A6</f>
@@ -21176,23 +21106,23 @@
       </c>
       <c r="D22" s="114">
         <f>SUM(D9:D20)</f>
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E22" s="114">
         <f>SUM(E9:E20)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22" s="114">
         <f>SUM(F11:F21)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G22" s="114">
         <f>SUM(G11:G21)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="115">
         <f>SUM(H11:H21)</f>
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -21214,7 +21144,7 @@
       <c r="D24" s="64"/>
       <c r="E24" s="71">
         <f>(D22+E22)*100/(H22-G22)</f>
-        <v>98.884758364312262</v>
+        <v>100</v>
       </c>
       <c r="F24" s="64" t="s">
         <v>43</v>
@@ -21231,7 +21161,7 @@
       <c r="D25" s="64"/>
       <c r="E25" s="71">
         <f>D22*100/(H22-G22)</f>
-        <v>98.141263940520446</v>
+        <v>100</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>43</v>
@@ -21305,39 +21235,39 @@
       <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="176" t="str">
+      <c r="C3" s="183"/>
+      <c r="D3" s="177" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="176" t="str">
+      <c r="C4" s="183"/>
+      <c r="D4" s="177" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
     </row>
     <row r="5" spans="2:6" s="39" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="181" t="s">
+      <c r="C5" s="181"/>
+      <c r="D5" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="40"/>
@@ -21388,10 +21318,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E10" s="124"/>
       <c r="F10" s="124"/>
@@ -21401,10 +21331,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D11" s="117" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E11" s="123"/>
       <c r="F11" s="124"/>
@@ -21414,10 +21344,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E12" s="123"/>
       <c r="F12" s="124"/>
@@ -21427,10 +21357,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="122" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E13" s="123"/>
       <c r="F13" s="124"/>
@@ -21440,10 +21370,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="122" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E14" s="124"/>
       <c r="F14" s="124"/>
@@ -21466,10 +21396,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E16" s="124"/>
       <c r="F16" s="124"/>
@@ -21533,11 +21463,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -21826,7 +21756,7 @@
         <v>120</v>
       </c>
       <c r="B34" s="130" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C34" s="130"/>
     </row>
@@ -21835,7 +21765,7 @@
         <v>119</v>
       </c>
       <c r="B35" s="130" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C35" s="130"/>
     </row>
@@ -21844,34 +21774,34 @@
         <v>120</v>
       </c>
       <c r="B36" s="130" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C36" s="130"/>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="142" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B37" s="130" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C37" s="130"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="142" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B38" s="130" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C38" s="130"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="142" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B39" s="130" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="C39" s="130"/>
     </row>
@@ -21889,10 +21819,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IP57"/>
+  <dimension ref="A1:IP54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38:H57"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -22169,14 +22099,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="187"/>
       <c r="H2" s="78"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -22427,14 +22357,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="190"/>
       <c r="H3" s="78"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -22685,14 +22615,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
       <c r="H4" s="78"/>
       <c r="I4" s="78"/>
       <c r="J4" s="78"/>
@@ -22950,11 +22880,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="190" t="s">
+      <c r="E5" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="191"/>
-      <c r="G5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193"/>
       <c r="H5" s="78"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -23203,27 +23133,27 @@
     </row>
     <row r="6" spans="1:250" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="86">
-        <f>COUNTIF(F11:G156,"Pass")</f>
+        <f>COUNTIF(F11:G153,"Pass")</f>
         <v>82</v>
       </c>
       <c r="B6" s="87">
-        <f>COUNTIF(F11:G156,"Fail")</f>
-        <v>2</v>
+        <f>COUNTIF(F11:G153,"Fail")</f>
+        <v>0</v>
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
         <v>0</v>
       </c>
       <c r="D6" s="88">
-        <f>COUNTIF(F11:G156,"N/A")</f>
-        <v>4</v>
-      </c>
-      <c r="E6" s="193">
-        <f>COUNTA(A11:A156)*2</f>
-        <v>88</v>
-      </c>
-      <c r="F6" s="194"/>
-      <c r="G6" s="195"/>
+        <f>COUNTIF(F11:G153,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="194">
+        <f>COUNTA(A11:A153)*2</f>
+        <v>82</v>
+      </c>
+      <c r="F6" s="195"/>
+      <c r="G6" s="196"/>
       <c r="H6" s="78"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -24243,7 +24173,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>123</v>
@@ -25114,13 +25044,13 @@
         <v>[Common Module-7]</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F17" s="97" t="s">
         <v>22</v>
@@ -25138,13 +25068,13 @@
         <v>[Common Module-8]</v>
       </c>
       <c r="B18" s="106" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D18" s="138" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="97" t="s">
@@ -25164,13 +25094,13 @@
         <v>[Common Module-9]</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D19" s="138" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="97" t="s">
@@ -25190,13 +25120,13 @@
         <v>[Common Module-10]</v>
       </c>
       <c r="B20" s="106" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D20" s="138" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="97" t="s">
@@ -25216,13 +25146,13 @@
         <v>[Common Module-11]</v>
       </c>
       <c r="B21" s="106" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C21" s="106" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D21" s="138" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="97" t="s">
@@ -25242,13 +25172,13 @@
         <v>[Common Module-12]</v>
       </c>
       <c r="B22" s="106" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C22" s="106" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D22" s="138" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="97" t="s">
@@ -25268,13 +25198,13 @@
         <v>[Common Module-13]</v>
       </c>
       <c r="B23" s="106" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C23" s="106" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D23" s="138" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="97" t="s">
@@ -25294,13 +25224,13 @@
         <v>[Common Module-14]</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D24" s="138" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="97" t="s">
@@ -25320,13 +25250,13 @@
         <v>[Common Module-15]</v>
       </c>
       <c r="B25" s="106" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C25" s="106" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D25" s="138" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="97" t="s">
@@ -25346,13 +25276,13 @@
         <v>[Common Module-16]</v>
       </c>
       <c r="B26" s="106" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D26" s="138" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="97" t="s">
@@ -25372,13 +25302,13 @@
         <v>[Common Module-17]</v>
       </c>
       <c r="B27" s="106" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C27" s="106" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D27" s="138" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="97" t="s">
@@ -25398,13 +25328,13 @@
         <v>[Common Module-18]</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C28" s="106" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D28" s="138" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="97" t="s">
@@ -25424,13 +25354,13 @@
         <v>[Common Module-19]</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D29" s="138" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="97" t="s">
@@ -25450,13 +25380,13 @@
         <v>[Common Module-20]</v>
       </c>
       <c r="B30" s="106" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="138" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="97" t="s">
@@ -25476,13 +25406,13 @@
         <v>[Common Module-21]</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C31" s="106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D31" s="138" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="97" t="s">
@@ -25502,13 +25432,13 @@
         <v>[Common Module-22]</v>
       </c>
       <c r="B32" s="106" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="138" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="97" t="s">
@@ -25531,7 +25461,7 @@
         <v>162</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D33" s="138" t="s">
         <v>156</v>
@@ -25554,13 +25484,13 @@
         <v>[Common Module-24]</v>
       </c>
       <c r="B34" s="95" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34" s="95" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D34" s="137" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="97" t="s">
@@ -25575,324 +25505,324 @@
       <c r="I34" s="101"/>
     </row>
     <row r="35" spans="1:250" ht="14.25" customHeight="1">
-      <c r="A35" s="95" t="str">
-        <f>IF(OR(B35&lt;&gt;"",D35&lt;E19&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Common Module-25]</v>
-      </c>
-      <c r="B35" s="95" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="100">
-        <v>42707</v>
-      </c>
-      <c r="I35" s="101"/>
-    </row>
-    <row r="36" spans="1:250" s="126" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A36" s="96" t="str">
-        <f>IF(OR(B38&lt;&gt;"",D36&lt;E36&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="78"/>
+      <c r="Z35" s="78"/>
+      <c r="AA35" s="78"/>
+      <c r="AB35" s="78"/>
+      <c r="AC35" s="78"/>
+      <c r="AD35" s="78"/>
+      <c r="AE35" s="78"/>
+      <c r="AF35" s="78"/>
+      <c r="AG35" s="78"/>
+      <c r="AH35" s="78"/>
+      <c r="AI35" s="78"/>
+      <c r="AJ35" s="78"/>
+      <c r="AK35" s="78"/>
+      <c r="AL35" s="78"/>
+      <c r="AM35" s="78"/>
+      <c r="AN35" s="78"/>
+      <c r="AO35" s="78"/>
+      <c r="AP35" s="78"/>
+      <c r="AQ35" s="78"/>
+      <c r="AR35" s="78"/>
+      <c r="AS35" s="78"/>
+      <c r="AT35" s="78"/>
+      <c r="AU35" s="78"/>
+      <c r="AV35" s="78"/>
+      <c r="AW35" s="78"/>
+      <c r="AX35" s="78"/>
+      <c r="AY35" s="78"/>
+      <c r="AZ35" s="78"/>
+      <c r="BA35" s="78"/>
+      <c r="BB35" s="78"/>
+      <c r="BC35" s="78"/>
+      <c r="BD35" s="78"/>
+      <c r="BE35" s="78"/>
+      <c r="BF35" s="78"/>
+      <c r="BG35" s="78"/>
+      <c r="BH35" s="78"/>
+      <c r="BI35" s="78"/>
+      <c r="BJ35" s="78"/>
+      <c r="BK35" s="78"/>
+      <c r="BL35" s="78"/>
+      <c r="BM35" s="78"/>
+      <c r="BN35" s="78"/>
+      <c r="BO35" s="78"/>
+      <c r="BP35" s="78"/>
+      <c r="BQ35" s="78"/>
+      <c r="BR35" s="78"/>
+      <c r="BS35" s="78"/>
+      <c r="BT35" s="78"/>
+      <c r="BU35" s="78"/>
+      <c r="BV35" s="78"/>
+      <c r="BW35" s="78"/>
+      <c r="BX35" s="78"/>
+      <c r="BY35" s="78"/>
+      <c r="BZ35" s="78"/>
+      <c r="CA35" s="78"/>
+      <c r="CB35" s="78"/>
+      <c r="CC35" s="78"/>
+      <c r="CD35" s="78"/>
+      <c r="CE35" s="78"/>
+      <c r="CF35" s="78"/>
+      <c r="CG35" s="78"/>
+      <c r="CH35" s="78"/>
+      <c r="CI35" s="78"/>
+      <c r="CJ35" s="78"/>
+      <c r="CK35" s="78"/>
+      <c r="CL35" s="78"/>
+      <c r="CM35" s="78"/>
+      <c r="CN35" s="78"/>
+      <c r="CO35" s="78"/>
+      <c r="CP35" s="78"/>
+      <c r="CQ35" s="78"/>
+      <c r="CR35" s="78"/>
+      <c r="CS35" s="78"/>
+      <c r="CT35" s="78"/>
+      <c r="CU35" s="78"/>
+      <c r="CV35" s="78"/>
+      <c r="CW35" s="78"/>
+      <c r="CX35" s="78"/>
+      <c r="CY35" s="78"/>
+      <c r="CZ35" s="78"/>
+      <c r="DA35" s="78"/>
+      <c r="DB35" s="78"/>
+      <c r="DC35" s="78"/>
+      <c r="DD35" s="78"/>
+      <c r="DE35" s="78"/>
+      <c r="DF35" s="78"/>
+      <c r="DG35" s="78"/>
+      <c r="DH35" s="78"/>
+      <c r="DI35" s="78"/>
+      <c r="DJ35" s="78"/>
+      <c r="DK35" s="78"/>
+      <c r="DL35" s="78"/>
+      <c r="DM35" s="78"/>
+      <c r="DN35" s="78"/>
+      <c r="DO35" s="78"/>
+      <c r="DP35" s="78"/>
+      <c r="DQ35" s="78"/>
+      <c r="DR35" s="78"/>
+      <c r="DS35" s="78"/>
+      <c r="DT35" s="78"/>
+      <c r="DU35" s="78"/>
+      <c r="DV35" s="78"/>
+      <c r="DW35" s="78"/>
+      <c r="DX35" s="78"/>
+      <c r="DY35" s="78"/>
+      <c r="DZ35" s="78"/>
+      <c r="EA35" s="78"/>
+      <c r="EB35" s="78"/>
+      <c r="EC35" s="78"/>
+      <c r="ED35" s="78"/>
+      <c r="EE35" s="78"/>
+      <c r="EF35" s="78"/>
+      <c r="EG35" s="78"/>
+      <c r="EH35" s="78"/>
+      <c r="EI35" s="78"/>
+      <c r="EJ35" s="78"/>
+      <c r="EK35" s="78"/>
+      <c r="EL35" s="78"/>
+      <c r="EM35" s="78"/>
+      <c r="EN35" s="78"/>
+      <c r="EO35" s="78"/>
+      <c r="EP35" s="78"/>
+      <c r="EQ35" s="78"/>
+      <c r="ER35" s="78"/>
+      <c r="ES35" s="78"/>
+      <c r="ET35" s="78"/>
+      <c r="EU35" s="78"/>
+      <c r="EV35" s="78"/>
+      <c r="EW35" s="78"/>
+      <c r="EX35" s="78"/>
+      <c r="EY35" s="78"/>
+      <c r="EZ35" s="78"/>
+      <c r="FA35" s="78"/>
+      <c r="FB35" s="78"/>
+      <c r="FC35" s="78"/>
+      <c r="FD35" s="78"/>
+      <c r="FE35" s="78"/>
+      <c r="FF35" s="78"/>
+      <c r="FG35" s="78"/>
+      <c r="FH35" s="78"/>
+      <c r="FI35" s="78"/>
+      <c r="FJ35" s="78"/>
+      <c r="FK35" s="78"/>
+      <c r="FL35" s="78"/>
+      <c r="FM35" s="78"/>
+      <c r="FN35" s="78"/>
+      <c r="FO35" s="78"/>
+      <c r="FP35" s="78"/>
+      <c r="FQ35" s="78"/>
+      <c r="FR35" s="78"/>
+      <c r="FS35" s="78"/>
+      <c r="FT35" s="78"/>
+      <c r="FU35" s="78"/>
+      <c r="FV35" s="78"/>
+      <c r="FW35" s="78"/>
+      <c r="FX35" s="78"/>
+      <c r="FY35" s="78"/>
+      <c r="FZ35" s="78"/>
+      <c r="GA35" s="78"/>
+      <c r="GB35" s="78"/>
+      <c r="GC35" s="78"/>
+      <c r="GD35" s="78"/>
+      <c r="GE35" s="78"/>
+      <c r="GF35" s="78"/>
+      <c r="GG35" s="78"/>
+      <c r="GH35" s="78"/>
+      <c r="GI35" s="78"/>
+      <c r="GJ35" s="78"/>
+      <c r="GK35" s="78"/>
+      <c r="GL35" s="78"/>
+      <c r="GM35" s="78"/>
+      <c r="GN35" s="78"/>
+      <c r="GO35" s="78"/>
+      <c r="GP35" s="78"/>
+      <c r="GQ35" s="78"/>
+      <c r="GR35" s="78"/>
+      <c r="GS35" s="78"/>
+      <c r="GT35" s="78"/>
+      <c r="GU35" s="78"/>
+      <c r="GV35" s="78"/>
+      <c r="GW35" s="78"/>
+      <c r="GX35" s="78"/>
+      <c r="GY35" s="78"/>
+      <c r="GZ35" s="78"/>
+      <c r="HA35" s="78"/>
+      <c r="HB35" s="78"/>
+      <c r="HC35" s="78"/>
+      <c r="HD35" s="78"/>
+      <c r="HE35" s="78"/>
+      <c r="HF35" s="78"/>
+      <c r="HG35" s="78"/>
+      <c r="HH35" s="78"/>
+      <c r="HI35" s="78"/>
+      <c r="HJ35" s="78"/>
+      <c r="HK35" s="78"/>
+      <c r="HL35" s="78"/>
+      <c r="HM35" s="78"/>
+      <c r="HN35" s="78"/>
+      <c r="HO35" s="78"/>
+      <c r="HP35" s="78"/>
+      <c r="HQ35" s="78"/>
+      <c r="HR35" s="78"/>
+      <c r="HS35" s="78"/>
+      <c r="HT35" s="78"/>
+      <c r="HU35" s="78"/>
+      <c r="HV35" s="78"/>
+      <c r="HW35" s="78"/>
+      <c r="HX35" s="78"/>
+      <c r="HY35" s="78"/>
+      <c r="HZ35" s="78"/>
+      <c r="IA35" s="78"/>
+      <c r="IB35" s="78"/>
+      <c r="IC35" s="78"/>
+      <c r="ID35" s="78"/>
+      <c r="IE35" s="78"/>
+      <c r="IF35" s="78"/>
+      <c r="IG35" s="78"/>
+      <c r="IH35" s="78"/>
+      <c r="II35" s="78"/>
+      <c r="IJ35" s="78"/>
+      <c r="IK35" s="78"/>
+      <c r="IL35" s="78"/>
+      <c r="IM35" s="78"/>
+      <c r="IN35" s="78"/>
+      <c r="IO35" s="78"/>
+      <c r="IP35" s="78"/>
+    </row>
+    <row r="36" spans="1:250" ht="12.75" customHeight="1">
+      <c r="A36" s="54" t="str">
+        <f>IF(OR(B36&lt;&gt;"",D36&lt;E35&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-26]</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="143" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" s="54"/>
+        <v>153</v>
+      </c>
+      <c r="D36" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="99"/>
       <c r="F36" s="97" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G36" s="97" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H36" s="100">
         <v>42707</v>
       </c>
       <c r="I36" s="101"/>
     </row>
-    <row r="37" spans="1:250" ht="14.25" customHeight="1">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="78"/>
-      <c r="AC37" s="78"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="78"/>
-      <c r="AF37" s="78"/>
-      <c r="AG37" s="78"/>
-      <c r="AH37" s="78"/>
-      <c r="AI37" s="78"/>
-      <c r="AJ37" s="78"/>
-      <c r="AK37" s="78"/>
-      <c r="AL37" s="78"/>
-      <c r="AM37" s="78"/>
-      <c r="AN37" s="78"/>
-      <c r="AO37" s="78"/>
-      <c r="AP37" s="78"/>
-      <c r="AQ37" s="78"/>
-      <c r="AR37" s="78"/>
-      <c r="AS37" s="78"/>
-      <c r="AT37" s="78"/>
-      <c r="AU37" s="78"/>
-      <c r="AV37" s="78"/>
-      <c r="AW37" s="78"/>
-      <c r="AX37" s="78"/>
-      <c r="AY37" s="78"/>
-      <c r="AZ37" s="78"/>
-      <c r="BA37" s="78"/>
-      <c r="BB37" s="78"/>
-      <c r="BC37" s="78"/>
-      <c r="BD37" s="78"/>
-      <c r="BE37" s="78"/>
-      <c r="BF37" s="78"/>
-      <c r="BG37" s="78"/>
-      <c r="BH37" s="78"/>
-      <c r="BI37" s="78"/>
-      <c r="BJ37" s="78"/>
-      <c r="BK37" s="78"/>
-      <c r="BL37" s="78"/>
-      <c r="BM37" s="78"/>
-      <c r="BN37" s="78"/>
-      <c r="BO37" s="78"/>
-      <c r="BP37" s="78"/>
-      <c r="BQ37" s="78"/>
-      <c r="BR37" s="78"/>
-      <c r="BS37" s="78"/>
-      <c r="BT37" s="78"/>
-      <c r="BU37" s="78"/>
-      <c r="BV37" s="78"/>
-      <c r="BW37" s="78"/>
-      <c r="BX37" s="78"/>
-      <c r="BY37" s="78"/>
-      <c r="BZ37" s="78"/>
-      <c r="CA37" s="78"/>
-      <c r="CB37" s="78"/>
-      <c r="CC37" s="78"/>
-      <c r="CD37" s="78"/>
-      <c r="CE37" s="78"/>
-      <c r="CF37" s="78"/>
-      <c r="CG37" s="78"/>
-      <c r="CH37" s="78"/>
-      <c r="CI37" s="78"/>
-      <c r="CJ37" s="78"/>
-      <c r="CK37" s="78"/>
-      <c r="CL37" s="78"/>
-      <c r="CM37" s="78"/>
-      <c r="CN37" s="78"/>
-      <c r="CO37" s="78"/>
-      <c r="CP37" s="78"/>
-      <c r="CQ37" s="78"/>
-      <c r="CR37" s="78"/>
-      <c r="CS37" s="78"/>
-      <c r="CT37" s="78"/>
-      <c r="CU37" s="78"/>
-      <c r="CV37" s="78"/>
-      <c r="CW37" s="78"/>
-      <c r="CX37" s="78"/>
-      <c r="CY37" s="78"/>
-      <c r="CZ37" s="78"/>
-      <c r="DA37" s="78"/>
-      <c r="DB37" s="78"/>
-      <c r="DC37" s="78"/>
-      <c r="DD37" s="78"/>
-      <c r="DE37" s="78"/>
-      <c r="DF37" s="78"/>
-      <c r="DG37" s="78"/>
-      <c r="DH37" s="78"/>
-      <c r="DI37" s="78"/>
-      <c r="DJ37" s="78"/>
-      <c r="DK37" s="78"/>
-      <c r="DL37" s="78"/>
-      <c r="DM37" s="78"/>
-      <c r="DN37" s="78"/>
-      <c r="DO37" s="78"/>
-      <c r="DP37" s="78"/>
-      <c r="DQ37" s="78"/>
-      <c r="DR37" s="78"/>
-      <c r="DS37" s="78"/>
-      <c r="DT37" s="78"/>
-      <c r="DU37" s="78"/>
-      <c r="DV37" s="78"/>
-      <c r="DW37" s="78"/>
-      <c r="DX37" s="78"/>
-      <c r="DY37" s="78"/>
-      <c r="DZ37" s="78"/>
-      <c r="EA37" s="78"/>
-      <c r="EB37" s="78"/>
-      <c r="EC37" s="78"/>
-      <c r="ED37" s="78"/>
-      <c r="EE37" s="78"/>
-      <c r="EF37" s="78"/>
-      <c r="EG37" s="78"/>
-      <c r="EH37" s="78"/>
-      <c r="EI37" s="78"/>
-      <c r="EJ37" s="78"/>
-      <c r="EK37" s="78"/>
-      <c r="EL37" s="78"/>
-      <c r="EM37" s="78"/>
-      <c r="EN37" s="78"/>
-      <c r="EO37" s="78"/>
-      <c r="EP37" s="78"/>
-      <c r="EQ37" s="78"/>
-      <c r="ER37" s="78"/>
-      <c r="ES37" s="78"/>
-      <c r="ET37" s="78"/>
-      <c r="EU37" s="78"/>
-      <c r="EV37" s="78"/>
-      <c r="EW37" s="78"/>
-      <c r="EX37" s="78"/>
-      <c r="EY37" s="78"/>
-      <c r="EZ37" s="78"/>
-      <c r="FA37" s="78"/>
-      <c r="FB37" s="78"/>
-      <c r="FC37" s="78"/>
-      <c r="FD37" s="78"/>
-      <c r="FE37" s="78"/>
-      <c r="FF37" s="78"/>
-      <c r="FG37" s="78"/>
-      <c r="FH37" s="78"/>
-      <c r="FI37" s="78"/>
-      <c r="FJ37" s="78"/>
-      <c r="FK37" s="78"/>
-      <c r="FL37" s="78"/>
-      <c r="FM37" s="78"/>
-      <c r="FN37" s="78"/>
-      <c r="FO37" s="78"/>
-      <c r="FP37" s="78"/>
-      <c r="FQ37" s="78"/>
-      <c r="FR37" s="78"/>
-      <c r="FS37" s="78"/>
-      <c r="FT37" s="78"/>
-      <c r="FU37" s="78"/>
-      <c r="FV37" s="78"/>
-      <c r="FW37" s="78"/>
-      <c r="FX37" s="78"/>
-      <c r="FY37" s="78"/>
-      <c r="FZ37" s="78"/>
-      <c r="GA37" s="78"/>
-      <c r="GB37" s="78"/>
-      <c r="GC37" s="78"/>
-      <c r="GD37" s="78"/>
-      <c r="GE37" s="78"/>
-      <c r="GF37" s="78"/>
-      <c r="GG37" s="78"/>
-      <c r="GH37" s="78"/>
-      <c r="GI37" s="78"/>
-      <c r="GJ37" s="78"/>
-      <c r="GK37" s="78"/>
-      <c r="GL37" s="78"/>
-      <c r="GM37" s="78"/>
-      <c r="GN37" s="78"/>
-      <c r="GO37" s="78"/>
-      <c r="GP37" s="78"/>
-      <c r="GQ37" s="78"/>
-      <c r="GR37" s="78"/>
-      <c r="GS37" s="78"/>
-      <c r="GT37" s="78"/>
-      <c r="GU37" s="78"/>
-      <c r="GV37" s="78"/>
-      <c r="GW37" s="78"/>
-      <c r="GX37" s="78"/>
-      <c r="GY37" s="78"/>
-      <c r="GZ37" s="78"/>
-      <c r="HA37" s="78"/>
-      <c r="HB37" s="78"/>
-      <c r="HC37" s="78"/>
-      <c r="HD37" s="78"/>
-      <c r="HE37" s="78"/>
-      <c r="HF37" s="78"/>
-      <c r="HG37" s="78"/>
-      <c r="HH37" s="78"/>
-      <c r="HI37" s="78"/>
-      <c r="HJ37" s="78"/>
-      <c r="HK37" s="78"/>
-      <c r="HL37" s="78"/>
-      <c r="HM37" s="78"/>
-      <c r="HN37" s="78"/>
-      <c r="HO37" s="78"/>
-      <c r="HP37" s="78"/>
-      <c r="HQ37" s="78"/>
-      <c r="HR37" s="78"/>
-      <c r="HS37" s="78"/>
-      <c r="HT37" s="78"/>
-      <c r="HU37" s="78"/>
-      <c r="HV37" s="78"/>
-      <c r="HW37" s="78"/>
-      <c r="HX37" s="78"/>
-      <c r="HY37" s="78"/>
-      <c r="HZ37" s="78"/>
-      <c r="IA37" s="78"/>
-      <c r="IB37" s="78"/>
-      <c r="IC37" s="78"/>
-      <c r="ID37" s="78"/>
-      <c r="IE37" s="78"/>
-      <c r="IF37" s="78"/>
-      <c r="IG37" s="78"/>
-      <c r="IH37" s="78"/>
-      <c r="II37" s="78"/>
-      <c r="IJ37" s="78"/>
-      <c r="IK37" s="78"/>
-      <c r="IL37" s="78"/>
-      <c r="IM37" s="78"/>
-      <c r="IN37" s="78"/>
-      <c r="IO37" s="78"/>
-      <c r="IP37" s="78"/>
-    </row>
-    <row r="38" spans="1:250" ht="12.75" customHeight="1">
+    <row r="37" spans="1:250" ht="17.25" customHeight="1">
+      <c r="A37" s="54" t="str">
+        <f>IF(OR(B37&lt;&gt;"",D37&lt;E36&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Common Module-27]</v>
+      </c>
+      <c r="B37" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="99"/>
+      <c r="F37" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I37" s="101"/>
+    </row>
+    <row r="38" spans="1:250" ht="12" customHeight="1">
       <c r="A38" s="54" t="str">
         <f>IF(OR(B38&lt;&gt;"",D38&lt;E37&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-28]</v>
       </c>
-      <c r="B38" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="97" t="s">
-        <v>202</v>
+      <c r="B38" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>205</v>
       </c>
       <c r="E38" s="99"/>
       <c r="F38" s="97" t="s">
@@ -25906,19 +25836,19 @@
       </c>
       <c r="I38" s="101"/>
     </row>
-    <row r="39" spans="1:250" ht="17.25" customHeight="1">
+    <row r="39" spans="1:250" ht="13.5" customHeight="1">
       <c r="A39" s="54" t="str">
         <f>IF(OR(B39&lt;&gt;"",D39&lt;E38&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-29]</v>
       </c>
-      <c r="B39" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="102" t="s">
-        <v>53</v>
+      <c r="B39" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="106" t="s">
+        <v>94</v>
       </c>
       <c r="E39" s="99"/>
       <c r="F39" s="97" t="s">
@@ -25932,19 +25862,19 @@
       </c>
       <c r="I39" s="101"/>
     </row>
-    <row r="40" spans="1:250" ht="12" customHeight="1">
-      <c r="A40" s="54" t="str">
-        <f>IF(OR(B40&lt;&gt;"",D40&lt;E39&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="40" spans="1:250" ht="12.75" customHeight="1">
+      <c r="A40" s="95" t="str">
+        <f>IF(OR(B40&lt;&gt;"",D40&lt;E38&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-30]</v>
       </c>
-      <c r="B40" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="102" t="s">
-        <v>210</v>
+      <c r="B40" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="106" t="s">
+        <v>95</v>
       </c>
       <c r="E40" s="99"/>
       <c r="F40" s="97" t="s">
@@ -25958,19 +25888,19 @@
       </c>
       <c r="I40" s="101"/>
     </row>
-    <row r="41" spans="1:250" ht="13.5" customHeight="1">
-      <c r="A41" s="54" t="str">
-        <f>IF(OR(B41&lt;&gt;"",D41&lt;E40&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="41" spans="1:250" s="126" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A41" s="96" t="str">
+        <f>IF(OR(B43&lt;&gt;"",D41&lt;E41&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-31]</v>
       </c>
-      <c r="B41" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="106" t="s">
-        <v>94</v>
+      <c r="B41" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>786</v>
       </c>
       <c r="E41" s="99"/>
       <c r="F41" s="97" t="s">
@@ -25984,19 +25914,19 @@
       </c>
       <c r="I41" s="101"/>
     </row>
-    <row r="42" spans="1:250" ht="12.75" customHeight="1">
-      <c r="A42" s="95" t="str">
-        <f>IF(OR(B42&lt;&gt;"",D42&lt;E40&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="42" spans="1:250" ht="12.75">
+      <c r="A42" s="54" t="str">
+        <f>IF(OR(B42&lt;&gt;"",D42&lt;E41&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-32]</v>
       </c>
-      <c r="B42" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="106" t="s">
-        <v>95</v>
+      <c r="B42" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>91</v>
       </c>
       <c r="E42" s="99"/>
       <c r="F42" s="97" t="s">
@@ -26010,19 +25940,19 @@
       </c>
       <c r="I42" s="101"/>
     </row>
-    <row r="43" spans="1:250" s="126" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="96" t="str">
-        <f>IF(OR(B45&lt;&gt;"",D43&lt;E43&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="43" spans="1:250" ht="12.75">
+      <c r="A43" s="54" t="str">
+        <f>IF(OR(B43&lt;&gt;"",D43&lt;E42&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-33]</v>
       </c>
       <c r="B43" s="102" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="C43" s="102" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>799</v>
+        <v>173</v>
       </c>
       <c r="E43" s="99"/>
       <c r="F43" s="97" t="s">
@@ -26042,13 +25972,13 @@
         <v>[Common Module-34]</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="E44" s="99"/>
       <c r="F44" s="97" t="s">
@@ -26062,19 +25992,19 @@
       </c>
       <c r="I44" s="101"/>
     </row>
-    <row r="45" spans="1:250" ht="12.75">
+    <row r="45" spans="1:250" ht="14.25" customHeight="1">
       <c r="A45" s="54" t="str">
         <f>IF(OR(B45&lt;&gt;"",D45&lt;E44&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-35]</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C45" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="102" t="s">
         <v>175</v>
-      </c>
-      <c r="D45" s="102" t="s">
-        <v>178</v>
       </c>
       <c r="E45" s="99"/>
       <c r="F45" s="97" t="s">
@@ -26088,21 +26018,21 @@
       </c>
       <c r="I45" s="101"/>
     </row>
-    <row r="46" spans="1:250" ht="12.75">
-      <c r="A46" s="54" t="str">
-        <f>IF(OR(B46&lt;&gt;"",D46&lt;E45&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="46" spans="1:250" ht="12" customHeight="1">
+      <c r="A46" s="96" t="str">
+        <f>IF(OR(B46&lt;&gt;"",D46&lt;E40&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-36]</v>
       </c>
-      <c r="B46" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="C46" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="99"/>
+      <c r="B46" s="97" t="s">
+        <v>787</v>
+      </c>
+      <c r="C46" s="97" t="s">
+        <v>788</v>
+      </c>
+      <c r="D46" s="97" t="s">
+        <v>789</v>
+      </c>
+      <c r="E46" s="96"/>
       <c r="F46" s="97" t="s">
         <v>22</v>
       </c>
@@ -26114,21 +26044,21 @@
       </c>
       <c r="I46" s="101"/>
     </row>
-    <row r="47" spans="1:250" ht="14.25" customHeight="1">
-      <c r="A47" s="54" t="str">
-        <f>IF(OR(B47&lt;&gt;"",D47&lt;E46&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="47" spans="1:250" ht="12" customHeight="1">
+      <c r="A47" s="96" t="str">
+        <f>IF(OR(B47&lt;&gt;"",D47&lt;E41&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-37]</v>
       </c>
-      <c r="B47" s="102" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="E47" s="99"/>
+      <c r="B47" s="97" t="s">
+        <v>790</v>
+      </c>
+      <c r="C47" s="97" t="s">
+        <v>791</v>
+      </c>
+      <c r="D47" s="97" t="s">
+        <v>792</v>
+      </c>
+      <c r="E47" s="96"/>
       <c r="F47" s="97" t="s">
         <v>22</v>
       </c>
@@ -26142,17 +26072,17 @@
     </row>
     <row r="48" spans="1:250" ht="12" customHeight="1">
       <c r="A48" s="96" t="str">
-        <f>IF(OR(B48&lt;&gt;"",D48&lt;E42&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A48:A53" si="5">IF(OR(B48&lt;&gt;"",D48&lt;E43&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-38]</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D48" s="97" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="E48" s="96"/>
       <c r="F48" s="97" t="s">
@@ -26168,17 +26098,17 @@
     </row>
     <row r="49" spans="1:9" ht="12" customHeight="1">
       <c r="A49" s="96" t="str">
-        <f>IF(OR(B49&lt;&gt;"",D49&lt;E43&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="5"/>
         <v>[Common Module-39]</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D49" s="97" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="E49" s="96"/>
       <c r="F49" s="97" t="s">
@@ -26194,17 +26124,17 @@
     </row>
     <row r="50" spans="1:9" ht="12" customHeight="1">
       <c r="A50" s="96" t="str">
-        <f t="shared" ref="A50:A55" si="5">IF(OR(B50&lt;&gt;"",D50&lt;E45&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="5"/>
         <v>[Common Module-40]</v>
       </c>
       <c r="B50" s="97" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D50" s="97" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="E50" s="96"/>
       <c r="F50" s="97" t="s">
@@ -26224,13 +26154,13 @@
         <v>[Common Module-41]</v>
       </c>
       <c r="B51" s="97" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D51" s="97" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E51" s="96"/>
       <c r="F51" s="97" t="s">
@@ -26250,13 +26180,13 @@
         <v>[Common Module-42]</v>
       </c>
       <c r="B52" s="97" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D52" s="97" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E52" s="96"/>
       <c r="F52" s="97" t="s">
@@ -26276,13 +26206,13 @@
         <v>[Common Module-43]</v>
       </c>
       <c r="B53" s="97" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D53" s="97" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="E53" s="96"/>
       <c r="F53" s="97" t="s">
@@ -26298,17 +26228,17 @@
     </row>
     <row r="54" spans="1:9" ht="12" customHeight="1">
       <c r="A54" s="96" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(B54&lt;&gt;"",D54&lt;E49&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-44]</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D54" s="97" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="E54" s="96"/>
       <c r="F54" s="97" t="s">
@@ -26321,84 +26251,6 @@
         <v>42707</v>
       </c>
       <c r="I54" s="101"/>
-    </row>
-    <row r="55" spans="1:9" ht="12" customHeight="1">
-      <c r="A55" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>[Common Module-45]</v>
-      </c>
-      <c r="B55" s="97" t="s">
-        <v>821</v>
-      </c>
-      <c r="C55" s="97" t="s">
-        <v>822</v>
-      </c>
-      <c r="D55" s="97" t="s">
-        <v>823</v>
-      </c>
-      <c r="E55" s="96"/>
-      <c r="F55" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="100">
-        <v>42707</v>
-      </c>
-      <c r="I55" s="101"/>
-    </row>
-    <row r="56" spans="1:9" ht="12" customHeight="1">
-      <c r="A56" s="96" t="str">
-        <f>IF(OR(B56&lt;&gt;"",D56&lt;E50&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Common Module-46]</v>
-      </c>
-      <c r="B56" s="97" t="s">
-        <v>824</v>
-      </c>
-      <c r="C56" s="97" t="s">
-        <v>825</v>
-      </c>
-      <c r="D56" s="97" t="s">
-        <v>826</v>
-      </c>
-      <c r="E56" s="96"/>
-      <c r="F56" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="100">
-        <v>42707</v>
-      </c>
-      <c r="I56" s="101"/>
-    </row>
-    <row r="57" spans="1:9" ht="12" customHeight="1">
-      <c r="A57" s="96" t="str">
-        <f>IF(OR(B57&lt;&gt;"",D57&lt;E51&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Common Module-47]</v>
-      </c>
-      <c r="B57" s="97" t="s">
-        <v>827</v>
-      </c>
-      <c r="C57" s="97" t="s">
-        <v>828</v>
-      </c>
-      <c r="D57" s="97" t="s">
-        <v>829</v>
-      </c>
-      <c r="E57" s="96"/>
-      <c r="F57" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="100">
-        <v>42707</v>
-      </c>
-      <c r="I57" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -26409,7 +26261,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G11:G15 F17:G36 F38:G57 F12:F15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G11:G15 F17:G34 F12:F15 F36:G54">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -26424,10 +26276,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW66"/>
+  <dimension ref="A1:IW63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -26713,14 +26565,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="196" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
+      <c r="B2" s="197" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78"/>
@@ -26978,14 +26830,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="196" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="B3" s="197" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78"/>
@@ -27243,14 +27095,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="198" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="78"/>
@@ -27515,11 +27367,11 @@
       <c r="D5" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="198" t="s">
+      <c r="E5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78"/>
@@ -27775,27 +27627,27 @@
     </row>
     <row r="6" spans="1:257" ht="13.5" thickBot="1">
       <c r="A6" s="86">
-        <f>COUNTIF(F12:G184,"Pass")</f>
+        <f>COUNTIF(F12:G181,"Pass")</f>
         <v>104</v>
       </c>
       <c r="B6" s="87">
-        <f>COUNTIF(F12:G184,"Fail")</f>
-        <v>2</v>
+        <f>COUNTIF(F12:G181,"Fail")</f>
+        <v>0</v>
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="88">
-        <f>COUNTIF(F12:G184,"N/A")</f>
+        <f>COUNTIF(F12:G181,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="199">
-        <f>COUNTA(A12:A184)*2</f>
-        <v>110</v>
-      </c>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
+      <c r="E6" s="200">
+        <f>COUNTA(A12:A181)*2</f>
+        <v>104</v>
+      </c>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78"/>
@@ -28829,10 +28681,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -29085,7 +28937,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -29342,13 +29194,13 @@
         <v>[Manage Event-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -29370,13 +29222,13 @@
         <v>[Manage Event-3]</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="106" t="s">
@@ -29398,13 +29250,13 @@
         <v>[Manage Event-4]</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="106" t="s">
@@ -29426,13 +29278,13 @@
         <v>[Manage Event-5]</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="106" t="s">
@@ -29454,13 +29306,13 @@
         <v>[Manage Event-6]</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="106" t="s">
@@ -29482,13 +29334,13 @@
         <v>[Manage Event-7]</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="106" t="s">
@@ -29510,13 +29362,13 @@
         <v>[Manage Event-8]</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="106" t="s">
@@ -29538,13 +29390,13 @@
         <v>[Manage Event-9]</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="106" t="s">
@@ -29566,13 +29418,13 @@
         <v>[Manage Event-10]</v>
       </c>
       <c r="B20" s="102" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="106" t="s">
@@ -29594,13 +29446,13 @@
         <v>[Manage Event-11]</v>
       </c>
       <c r="B21" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="102" t="s">
         <v>301</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>302</v>
-      </c>
-      <c r="D21" s="102" t="s">
-        <v>306</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="106" t="s">
@@ -29622,13 +29474,13 @@
         <v>[Manage Event-12]</v>
       </c>
       <c r="B22" s="102" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="106" t="s">
@@ -29650,13 +29502,13 @@
         <v>[Manage Event-13]</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="106" t="s">
@@ -29678,13 +29530,13 @@
         <v>[Manage Event-14]</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E24" s="104"/>
       <c r="F24" s="106" t="s">
@@ -29705,13 +29557,13 @@
         <v>[Manage Event-15]</v>
       </c>
       <c r="B25" s="102" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E25" s="104"/>
       <c r="F25" s="106" t="s">
@@ -29733,13 +29585,13 @@
         <v>[Manage Event-16]</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E26" s="104"/>
       <c r="F26" s="106" t="s">
@@ -29761,13 +29613,13 @@
         <v>[Manage Event-17]</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E27" s="104"/>
       <c r="F27" s="106" t="s">
@@ -29789,13 +29641,13 @@
         <v>[Manage Event-18]</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E28" s="104"/>
       <c r="F28" s="106" t="s">
@@ -29817,13 +29669,13 @@
         <v>[Manage Event-19]</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E29" s="104"/>
       <c r="F29" s="106" t="s">
@@ -29845,13 +29697,13 @@
         <v>[Manage Event-20]</v>
       </c>
       <c r="B30" s="102" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E30" s="104"/>
       <c r="F30" s="106" t="s">
@@ -29873,13 +29725,13 @@
         <v>[Manage Event-21]</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E31" s="104"/>
       <c r="F31" s="106" t="s">
@@ -29901,13 +29753,13 @@
         <v>[Manage Event-22]</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D32" s="102" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="106" t="s">
@@ -29929,13 +29781,13 @@
         <v>[Manage Event-23]</v>
       </c>
       <c r="B33" s="102" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="97" t="s">
+        <v>348</v>
+      </c>
+      <c r="D33" s="102" t="s">
         <v>351</v>
-      </c>
-      <c r="C33" s="97" t="s">
-        <v>353</v>
-      </c>
-      <c r="D33" s="102" t="s">
-        <v>356</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="106" t="s">
@@ -29957,13 +29809,13 @@
         <v>[Manage Event-24]</v>
       </c>
       <c r="B34" s="102" t="s">
+        <v>345</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>349</v>
+      </c>
+      <c r="D34" s="102" t="s">
         <v>350</v>
-      </c>
-      <c r="C34" s="97" t="s">
-        <v>354</v>
-      </c>
-      <c r="D34" s="102" t="s">
-        <v>355</v>
       </c>
       <c r="E34" s="104"/>
       <c r="F34" s="106" t="s">
@@ -29985,13 +29837,13 @@
         <v>[Manage Event-25]</v>
       </c>
       <c r="B35" s="102" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D35" s="102" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="106" t="s">
@@ -30012,13 +29864,13 @@
         <v>[Manage Event-26]</v>
       </c>
       <c r="B36" s="102" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D36" s="102" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E36" s="104"/>
       <c r="F36" s="106" t="s">
@@ -30039,13 +29891,13 @@
         <v>[Manage Event-27]</v>
       </c>
       <c r="B37" s="102" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E37" s="102"/>
       <c r="F37" s="106" t="s">
@@ -30066,13 +29918,13 @@
         <v>[Manage Event-28]</v>
       </c>
       <c r="B38" s="102" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E38" s="104"/>
       <c r="F38" s="106" t="s">
@@ -30093,13 +29945,13 @@
         <v>[Manage Event-29]</v>
       </c>
       <c r="B39" s="102" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D39" s="102" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E39" s="104"/>
       <c r="F39" s="106" t="s">
@@ -30120,13 +29972,13 @@
         <v>[Manage Event-30]</v>
       </c>
       <c r="B40" s="102" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D40" s="102" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E40" s="104"/>
       <c r="F40" s="106" t="s">
@@ -30147,13 +29999,13 @@
         <v>[Manage Event-31]</v>
       </c>
       <c r="B41" s="102" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E41" s="104"/>
       <c r="F41" s="106" t="s">
@@ -30174,13 +30026,13 @@
         <v>[Manage Event-32]</v>
       </c>
       <c r="B42" s="102" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E42" s="104"/>
       <c r="F42" s="106" t="s">
@@ -30201,13 +30053,13 @@
         <v>[Manage Event-33]</v>
       </c>
       <c r="B43" s="102" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="E43" s="104"/>
       <c r="F43" s="106" t="s">
@@ -30228,13 +30080,13 @@
         <v>[Manage Event-34]</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E44" s="104"/>
       <c r="F44" s="106" t="s">
@@ -30255,13 +30107,13 @@
         <v>[Manage Event-35]</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D45" s="97" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E45" s="104"/>
       <c r="F45" s="106" t="s">
@@ -30282,13 +30134,13 @@
         <v>[Manage Event-36]</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D46" s="97" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E46" s="104"/>
       <c r="F46" s="106" t="s">
@@ -30309,13 +30161,13 @@
         <v>[Manage Event-37]</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C47" s="97" t="s">
+        <v>394</v>
+      </c>
+      <c r="D47" s="97" t="s">
         <v>399</v>
-      </c>
-      <c r="D47" s="97" t="s">
-        <v>404</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="106" t="s">
@@ -30336,13 +30188,13 @@
         <v>[Manage Event-38]</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D48" s="97" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="106" t="s">
@@ -30363,13 +30215,13 @@
         <v>[Manage Event-39]</v>
       </c>
       <c r="B49" s="102" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D49" s="97" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E49" s="104"/>
       <c r="F49" s="106" t="s">
@@ -30390,13 +30242,13 @@
         <v>[Manage Event-40]</v>
       </c>
       <c r="B50" s="102" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D50" s="97" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="106" t="s">
@@ -30417,13 +30269,13 @@
         <v>[Manage Event-41]</v>
       </c>
       <c r="B51" s="102" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D51" s="97" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E51" s="104"/>
       <c r="F51" s="106" t="s">
@@ -30444,13 +30296,13 @@
         <v>[Manage Event-42]</v>
       </c>
       <c r="B52" s="102" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D52" s="97" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="106" t="s">
@@ -30471,13 +30323,13 @@
         <v>[Manage Event-43]</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D53" s="97" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E53" s="104"/>
       <c r="F53" s="106" t="s">
@@ -30498,13 +30350,13 @@
         <v>[Manage Event-44]</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D54" s="97" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E54" s="104"/>
       <c r="F54" s="106" t="s">
@@ -30521,17 +30373,17 @@
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1">
       <c r="A55" s="54" t="str">
-        <f t="shared" ref="A55:A66" si="13">IF(OR(B55&lt;&gt;"",D55&lt;E54&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A55:A63" si="13">IF(OR(B55&lt;&gt;"",D55&lt;E54&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Manage Event-45]</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D55" s="97" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E55" s="104"/>
       <c r="F55" s="106" t="s">
@@ -30546,26 +30398,26 @@
       <c r="I55" s="104"/>
       <c r="J55" s="90"/>
     </row>
-    <row r="56" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A56" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v>[Manage Event-46]</v>
-      </c>
-      <c r="B56" s="97" t="s">
-        <v>427</v>
+    <row r="56" spans="1:10" ht="15" customHeight="1">
+      <c r="A56" s="54" t="e">
+        <f>IF(OR(B56&lt;&gt;"",D56&lt;#REF!&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B56" s="102" t="s">
+        <v>531</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>541</v>
-      </c>
-      <c r="D56" s="97" t="s">
-        <v>545</v>
+        <v>535</v>
+      </c>
+      <c r="D56" s="103" t="s">
+        <v>536</v>
       </c>
       <c r="E56" s="104"/>
       <c r="F56" s="106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G56" s="106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H56" s="98">
         <v>42707</v>
@@ -30573,26 +30425,26 @@
       <c r="I56" s="104"/>
       <c r="J56" s="90"/>
     </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1">
+    <row r="57" spans="1:10" ht="14.25" customHeight="1">
       <c r="A57" s="54" t="str">
         <f t="shared" si="13"/>
         <v>[Manage Event-47]</v>
       </c>
       <c r="B57" s="102" t="s">
-        <v>428</v>
+        <v>537</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>433</v>
-      </c>
-      <c r="D57" s="97" t="s">
-        <v>543</v>
+        <v>533</v>
+      </c>
+      <c r="D57" s="103" t="s">
+        <v>534</v>
       </c>
       <c r="E57" s="104"/>
       <c r="F57" s="106" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G57" s="106" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H57" s="98">
         <v>42707</v>
@@ -30600,26 +30452,26 @@
       <c r="I57" s="104"/>
       <c r="J57" s="90"/>
     </row>
-    <row r="58" spans="1:10" ht="17.25" customHeight="1">
+    <row r="58" spans="1:10" ht="15" customHeight="1">
       <c r="A58" s="54" t="str">
         <f t="shared" si="13"/>
         <v>[Manage Event-48]</v>
       </c>
       <c r="B58" s="102" t="s">
-        <v>429</v>
+        <v>538</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>541</v>
-      </c>
-      <c r="D58" s="97" t="s">
-        <v>542</v>
+        <v>533</v>
+      </c>
+      <c r="D58" s="103" t="s">
+        <v>540</v>
       </c>
       <c r="E58" s="104"/>
       <c r="F58" s="106" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G58" s="106" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H58" s="98">
         <v>42707</v>
@@ -30627,19 +30479,19 @@
       <c r="I58" s="104"/>
       <c r="J58" s="90"/>
     </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1">
+    <row r="59" spans="1:10" ht="14.25" customHeight="1">
       <c r="A59" s="54" t="str">
         <f t="shared" si="13"/>
         <v>[Manage Event-49]</v>
       </c>
       <c r="B59" s="102" t="s">
+        <v>539</v>
+      </c>
+      <c r="C59" s="97" t="s">
+        <v>541</v>
+      </c>
+      <c r="D59" s="103" t="s">
         <v>540</v>
-      </c>
-      <c r="C59" s="97" t="s">
-        <v>548</v>
-      </c>
-      <c r="D59" s="103" t="s">
-        <v>549</v>
       </c>
       <c r="E59" s="104"/>
       <c r="F59" s="106" t="s">
@@ -30660,13 +30512,13 @@
         <v>[Manage Event-50]</v>
       </c>
       <c r="B60" s="102" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D60" s="103" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E60" s="104"/>
       <c r="F60" s="106" t="s">
@@ -30681,19 +30533,19 @@
       <c r="I60" s="104"/>
       <c r="J60" s="90"/>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1">
+    <row r="61" spans="1:10" ht="12.75" customHeight="1">
       <c r="A61" s="54" t="str">
         <f t="shared" si="13"/>
         <v>[Manage Event-51]</v>
       </c>
       <c r="B61" s="102" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C61" s="97" t="s">
+        <v>545</v>
+      </c>
+      <c r="D61" s="103" t="s">
         <v>546</v>
-      </c>
-      <c r="D61" s="103" t="s">
-        <v>553</v>
       </c>
       <c r="E61" s="104"/>
       <c r="F61" s="106" t="s">
@@ -30714,13 +30566,13 @@
         <v>[Manage Event-52]</v>
       </c>
       <c r="B62" s="102" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D62" s="103" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E62" s="104"/>
       <c r="F62" s="106" t="s">
@@ -30741,13 +30593,13 @@
         <v>[Manage Event-53]</v>
       </c>
       <c r="B63" s="102" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C63" s="97" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D63" s="103" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E63" s="104"/>
       <c r="F63" s="106" t="s">
@@ -30761,87 +30613,6 @@
       </c>
       <c r="I63" s="104"/>
       <c r="J63" s="90"/>
-    </row>
-    <row r="64" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A64" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v>[Manage Event-54]</v>
-      </c>
-      <c r="B64" s="102" t="s">
-        <v>560</v>
-      </c>
-      <c r="C64" s="97" t="s">
-        <v>558</v>
-      </c>
-      <c r="D64" s="103" t="s">
-        <v>559</v>
-      </c>
-      <c r="E64" s="104"/>
-      <c r="F64" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="98">
-        <v>42707</v>
-      </c>
-      <c r="I64" s="104"/>
-      <c r="J64" s="90"/>
-    </row>
-    <row r="65" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A65" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v>[Manage Event-55]</v>
-      </c>
-      <c r="B65" s="102" t="s">
-        <v>561</v>
-      </c>
-      <c r="C65" s="97" t="s">
-        <v>558</v>
-      </c>
-      <c r="D65" s="103" t="s">
-        <v>562</v>
-      </c>
-      <c r="E65" s="104"/>
-      <c r="F65" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" s="98">
-        <v>42707</v>
-      </c>
-      <c r="I65" s="104"/>
-      <c r="J65" s="90"/>
-    </row>
-    <row r="66" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A66" s="54" t="str">
-        <f t="shared" si="13"/>
-        <v>[Manage Event-56]</v>
-      </c>
-      <c r="B66" s="102" t="s">
-        <v>563</v>
-      </c>
-      <c r="C66" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="D66" s="103" t="s">
-        <v>565</v>
-      </c>
-      <c r="E66" s="104"/>
-      <c r="F66" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="98">
-        <v>42707</v>
-      </c>
-      <c r="I66" s="104"/>
-      <c r="J66" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -30852,7 +30623,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G66">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G63">
       <formula1>$Q$2:$Q$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -31149,14 +30920,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="196" t="s">
-        <v>488</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
+      <c r="B2" s="197" t="s">
+        <v>479</v>
+      </c>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -31407,14 +31178,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="196" t="s">
-        <v>489</v>
-      </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="B3" s="197" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -31665,14 +31436,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -31930,11 +31701,11 @@
       <c r="D5" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="198" t="s">
+      <c r="E5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -32198,12 +31969,12 @@
         <f>COUNTIF(F12:G103,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="200">
         <f>COUNTA(A12:A103)*2</f>
         <v>40</v>
       </c>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -33230,10 +33001,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -33486,7 +33257,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -33743,13 +33514,13 @@
         <v>[Manage Organization-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -33770,13 +33541,13 @@
         <v>[Manage Organization-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="106" t="s">
@@ -33797,13 +33568,13 @@
         <v>[Manage Organization-4]</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="106" t="s">
@@ -33824,13 +33595,13 @@
         <v>[Manage Organization-5]</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="106" t="s">
@@ -33851,13 +33622,13 @@
         <v>[Manage Organization-6]</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="106" t="s">
@@ -33878,13 +33649,13 @@
         <v>[Manage Organization-7]</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="106" t="s">
@@ -33905,13 +33676,13 @@
         <v>[Manage Organization-8]</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="106" t="s">
@@ -33932,13 +33703,13 @@
         <v>[Manage Organization-9]</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="106" t="s">
@@ -33959,13 +33730,13 @@
         <v>[Manage Organization-10]</v>
       </c>
       <c r="B20" s="102" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="106" t="s">
@@ -33986,13 +33757,13 @@
         <v>[Manage Organization-11]</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="106" t="s">
@@ -34013,13 +33784,13 @@
         <v>[Manage Organization-12]</v>
       </c>
       <c r="B22" s="102" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="106" t="s">
@@ -34040,13 +33811,13 @@
         <v>[Manage Organization-13]</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="106" t="s">
@@ -34067,13 +33838,13 @@
         <v>[Manage Organization-14]</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E24" s="104"/>
       <c r="F24" s="106" t="s">
@@ -34094,13 +33865,13 @@
         <v>[Manage Organization-15]</v>
       </c>
       <c r="B25" s="102" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E25" s="104"/>
       <c r="F25" s="106" t="s">
@@ -34121,13 +33892,13 @@
         <v>[Manage Organization-16]</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="E26" s="104"/>
       <c r="F26" s="106" t="s">
@@ -34148,13 +33919,13 @@
         <v>[Manage Organization-17]</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="E27" s="104"/>
       <c r="F27" s="106" t="s">
@@ -34175,13 +33946,13 @@
         <v>[Manage Organization-18]</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E28" s="104"/>
       <c r="F28" s="106" t="s">
@@ -34202,13 +33973,13 @@
         <v>[Manage Organization-19]</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E29" s="104"/>
       <c r="F29" s="106" t="s">
@@ -34229,13 +34000,13 @@
         <v>[Manage Organization-20]</v>
       </c>
       <c r="B30" s="102" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="E30" s="104"/>
       <c r="F30" s="106" t="s">
@@ -34256,13 +34027,13 @@
         <v>[Manage Organization-21]</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E31" s="104"/>
       <c r="F31" s="106" t="s">
@@ -34326,8 +34097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G44" sqref="F44:G44"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -34606,14 +34377,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="196" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
+      <c r="B2" s="197" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -34864,14 +34635,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="196" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="B3" s="197" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -35122,14 +34893,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -35387,11 +35158,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="198" t="s">
+      <c r="E5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -35641,7 +35412,7 @@
     <row r="6" spans="1:257" ht="13.5" thickBot="1">
       <c r="A6" s="86">
         <f>COUNTIF(F12:G102,"Pass")</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" s="87">
         <f>COUNTIF(F12:G102,"Fail")</f>
@@ -35649,18 +35420,18 @@
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="88">
         <f>COUNTIF(F12:G102,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="200">
         <f>COUNTA(A12:A102)*2</f>
         <v>68</v>
       </c>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -36687,10 +36458,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -36943,7 +36714,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -37200,13 +36971,13 @@
         <v>[Manage Thread-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -37227,16 +36998,18 @@
         <v>[Manage Thread-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E13" s="99"/>
-      <c r="F13" s="106"/>
+      <c r="F13" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="106" t="s">
         <v>22</v>
       </c>
@@ -37252,13 +37025,13 @@
         <v>[Manage Thread-4]</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="106" t="s">
@@ -37279,13 +37052,13 @@
         <v>[Manage Thread-5]</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="106" t="s">
@@ -37306,13 +37079,13 @@
         <v>[Manage Thread-6]</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="106" t="s">
@@ -37333,13 +37106,13 @@
         <v>[Manage Thread-7]</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="106" t="s">
@@ -37360,13 +37133,13 @@
         <v>[Manage Thread-8]</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="106" t="s">
@@ -37387,13 +37160,13 @@
         <v>[Manage Thread-9]</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="106" t="s">
@@ -37414,13 +37187,13 @@
         <v>[Manage Thread-10]</v>
       </c>
       <c r="B20" s="102" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="106" t="s">
@@ -37441,13 +37214,13 @@
         <v>[Manage Thread-11]</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="106" t="s">
@@ -37468,13 +37241,13 @@
         <v>[Manage Thread-12]</v>
       </c>
       <c r="B22" s="102" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="106" t="s">
@@ -37495,13 +37268,13 @@
         <v>[Manage Thread-13]</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="106" t="s">
@@ -37522,13 +37295,13 @@
         <v>[Manage Thread-14]</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E24" s="104"/>
       <c r="F24" s="106" t="s">
@@ -37549,13 +37322,13 @@
         <v>[Manage Thread-15]</v>
       </c>
       <c r="B25" s="102" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E25" s="104"/>
       <c r="F25" s="106" t="s">
@@ -37576,13 +37349,13 @@
         <v>[Manage Thread-16]</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E26" s="104"/>
       <c r="F26" s="106" t="s">
@@ -37603,13 +37376,13 @@
         <v>[Manage Thread-17]</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E27" s="104"/>
       <c r="F27" s="106" t="s">
@@ -37630,13 +37403,13 @@
         <v>[Manage Thread-18]</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E28" s="104"/>
       <c r="F28" s="106" t="s">
@@ -37657,13 +37430,13 @@
         <v>[Manage Thread-19]</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E29" s="104"/>
       <c r="F29" s="106" t="s">
@@ -37684,13 +37457,13 @@
         <v>[Manage Thread-20]</v>
       </c>
       <c r="B30" s="102" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E30" s="104"/>
       <c r="F30" s="106" t="s">
@@ -37711,13 +37484,13 @@
         <v>[Manage Thread-21]</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E31" s="104"/>
       <c r="F31" s="106" t="s">
@@ -37738,13 +37511,13 @@
         <v>[Manage Thread-22]</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D32" s="102" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="106" t="s">
@@ -37765,13 +37538,13 @@
         <v>[Manage Thread-23]</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D33" s="102" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="106" t="s">
@@ -37792,13 +37565,13 @@
         <v>[Manage Thread-24]</v>
       </c>
       <c r="B34" s="102" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="E34" s="104"/>
       <c r="F34" s="106" t="s">
@@ -37819,13 +37592,13 @@
         <v>[Manage Thread-25]</v>
       </c>
       <c r="B35" s="102" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D35" s="102" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="106" t="s">
@@ -37846,13 +37619,13 @@
         <v>[Manage Thread-26]</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E36" s="104"/>
       <c r="F36" s="106" t="s">
@@ -37873,13 +37646,13 @@
         <v>[Manage Thread-27]</v>
       </c>
       <c r="B37" s="102" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E37" s="104"/>
       <c r="F37" s="106" t="s">
@@ -37900,13 +37673,13 @@
         <v>[Manage Thread-28]</v>
       </c>
       <c r="B38" s="102" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E38" s="104"/>
       <c r="F38" s="106" t="s">
@@ -37927,13 +37700,13 @@
         <v>[Manage Thread-29]</v>
       </c>
       <c r="B39" s="102" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E39" s="104"/>
       <c r="F39" s="106" t="s">
@@ -37954,13 +37727,13 @@
         <v>[Manage Thread-30]</v>
       </c>
       <c r="B40" s="102" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E40" s="104"/>
       <c r="F40" s="106" t="s">
@@ -37981,13 +37754,13 @@
         <v>[Manage Thread-31]</v>
       </c>
       <c r="B41" s="102" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D41" s="97" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E41" s="104"/>
       <c r="F41" s="106" t="s">
@@ -38008,19 +37781,21 @@
         <v>[Manage Thread-32]</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D42" s="97" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E42" s="104"/>
       <c r="F42" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="106"/>
+      <c r="G42" s="106" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" s="98">
         <v>42712</v>
       </c>
@@ -38033,13 +37808,13 @@
         <v>[Manage Thread-33]</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D43" s="97" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E43" s="104"/>
       <c r="F43" s="106" t="s">
@@ -38060,13 +37835,13 @@
         <v>[Manage Thread-34]</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D44" s="97" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E44" s="104"/>
       <c r="F44" s="106" t="s">
@@ -38087,13 +37862,13 @@
         <v>[Manage Thread-35]</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C45" s="97" t="s">
+        <v>419</v>
+      </c>
+      <c r="D45" s="97" t="s">
         <v>424</v>
-      </c>
-      <c r="D45" s="97" t="s">
-        <v>432</v>
       </c>
       <c r="E45" s="104"/>
       <c r="F45" s="106" t="s">
@@ -38414,14 +38189,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="196" t="s">
-        <v>434</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
+      <c r="B2" s="197" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -38672,14 +38447,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="196" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="B3" s="197" t="s">
+        <v>426</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -38930,14 +38705,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -39195,11 +38970,11 @@
       <c r="D5" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="198" t="s">
+      <c r="E5" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -39463,12 +39238,12 @@
         <f>COUNTIF(F12:G99,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="200">
         <f>COUNTA(A12:A99)*2</f>
         <v>36</v>
       </c>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -40495,10 +40270,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -40751,7 +40526,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -41008,13 +40783,13 @@
         <v>[User profile-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -41035,13 +40810,13 @@
         <v>[User profile-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="106" t="s">
@@ -41062,13 +40837,13 @@
         <v>[User profile-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E14" s="99"/>
       <c r="F14" s="106" t="s">
@@ -41089,13 +40864,13 @@
         <v>[User profile-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E15" s="99"/>
       <c r="F15" s="106" t="s">
@@ -41116,13 +40891,13 @@
         <v>[User profile-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E16" s="99"/>
       <c r="F16" s="106" t="s">
@@ -41143,13 +40918,13 @@
         <v>[User profile-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E17" s="99"/>
       <c r="F17" s="106" t="s">
@@ -41170,13 +40945,13 @@
         <v>[User profile-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E18" s="99"/>
       <c r="F18" s="106" t="s">
@@ -41197,13 +40972,13 @@
         <v>[User profile-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="E19" s="99"/>
       <c r="F19" s="106" t="s">
@@ -41224,13 +40999,13 @@
         <v>[User profile-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E20" s="99"/>
       <c r="F20" s="106" t="s">
@@ -41251,13 +41026,13 @@
         <v>[User profile-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E21" s="99"/>
       <c r="F21" s="106" t="s">
@@ -41278,13 +41053,13 @@
         <v>[User profile-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="106" t="s">
@@ -41305,13 +41080,13 @@
         <v>[User profile-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="106" t="s">
@@ -41332,13 +41107,13 @@
         <v>[User profile-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E24" s="99"/>
       <c r="F24" s="106" t="s">
@@ -41359,13 +41134,13 @@
         <v>[User profile-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E25" s="99"/>
       <c r="F25" s="106" t="s">
@@ -41386,13 +41161,13 @@
         <v>[User profile-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E26" s="99"/>
       <c r="F26" s="106" t="s">
@@ -41413,13 +41188,13 @@
         <v>[User profile-17]</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E27" s="99"/>
       <c r="F27" s="106" t="s">
@@ -41440,13 +41215,13 @@
         <v>[User profile-18]</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E28" s="99"/>
       <c r="F28" s="106" t="s">
@@ -41467,13 +41242,13 @@
         <v>[User profile-19]</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E29" s="99"/>
       <c r="F29" s="106" t="s">
